--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>146963.6037636976</v>
+        <v>148214.4045450225</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19282386.12654756</v>
+        <v>19282386.12654757</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9802884.450357862</v>
+        <v>9802884.450357866</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5449644.98789016</v>
+        <v>5437651.178780567</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>227.325019353762</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>225.6750356107403</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -753,7 +755,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H3" t="n">
-        <v>52.84233230531351</v>
+        <v>52.8423323053137</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -829,10 +831,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>98.0060050679146</v>
       </c>
       <c r="H4" t="n">
-        <v>34.79484432979901</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -883,7 +885,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,10 +910,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>343.8929700497541</v>
+        <v>131.975558987749</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1051,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>88.66266823451896</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>164.540418312084</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1139,16 +1141,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>173.6367412348449</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>297.1666710764714</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>88.66266823451896</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1339,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>139.4851730221162</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>243.9337072103166</v>
+        <v>368.4405643932951</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1436,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1543,7 +1545,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>34.79484432979901</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1588,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>164.540418312084</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1607,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>331.9797058089127</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1667,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>227.4882809963842</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1765,19 +1767,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>68.83205621563042</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>82.17849676495474</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1816,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1844,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1856,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>93.3020705103321</v>
       </c>
       <c r="U17" t="n">
         <v>255.7713603095518</v>
@@ -1904,7 +1906,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>106.8056168372341</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2002,19 +2004,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>85.04101540913277</v>
       </c>
       <c r="F19" t="n">
-        <v>7.907838990075963</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2078,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
@@ -2096,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>118.6938953150003</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>58.67748875058538</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>78.16614128474193</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2245,13 +2247,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>146.0859809509658</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2305,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,25 +2320,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>153.1824608301608</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>80.09898741776063</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2491,10 +2493,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>123.9086344760393</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>156.3950745845503</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2555,10 +2557,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2570,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
-        <v>92.38090300811142</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>173.5514111477256</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2713,22 +2715,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>123.0673923170412</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -2761,13 +2763,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>143.1639247279253</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2792,19 +2794,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>128.8925684673743</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2840,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>35.85325030900038</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>149.7181052831742</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2959,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -2968,7 +2970,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3016,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>58.31517967031904</v>
       </c>
     </row>
     <row r="32">
@@ -3032,22 +3034,22 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>162.4139576824571</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3092,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>58.67748875058538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3199,13 +3201,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>11.12043047005175</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3241,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>161.673798810038</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3266,19 +3268,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>99.76095105070239</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>170.2061778061987</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -3329,7 +3331,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W37" t="n">
-        <v>74.07475062513807</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3500,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>8.474220880811774</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3512,10 +3514,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
         <v>294.8896947407055</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>167.8886287206013</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,16 +3672,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>102.0412378013748</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3721,13 +3723,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>165.8729356708562</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3743,19 +3745,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>167.225823014918</v>
+        <v>352.2426925203172</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3898,25 +3900,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>51.69511841098279</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>77.34040729634172</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,13 +3948,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3977,25 +3979,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>71.77132399094408</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>139.2702769432207</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4135,25 +4137,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>80.70405395306899</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>63.8190088793576</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
@@ -4195,10 +4197,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1520.30675795911</v>
+        <v>266.5332241312934</v>
       </c>
       <c r="C2" t="n">
-        <v>1520.30675795911</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D2" t="n">
-        <v>1520.30675795911</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E2" t="n">
-        <v>1094.329818106968</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F2" t="n">
-        <v>669.2056362963683</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G2" t="n">
-        <v>264.8665738858169</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H2" t="n">
         <v>36.91199246082674</v>
@@ -4328,52 +4330,52 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J2" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K2" t="n">
-        <v>856.3013579804531</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L2" t="n">
-        <v>1313.087264683184</v>
+        <v>950.4838058662885</v>
       </c>
       <c r="M2" t="n">
-        <v>1313.087264683184</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="N2" t="n">
-        <v>1389.514143537154</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="O2" t="n">
-        <v>1389.514143537154</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="P2" t="n">
-        <v>1389.514143537154</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q2" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R2" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S2" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T2" t="n">
-        <v>1520.30675795911</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U2" t="n">
-        <v>1520.30675795911</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V2" t="n">
-        <v>1520.30675795911</v>
+        <v>1488.110208167586</v>
       </c>
       <c r="W2" t="n">
-        <v>1520.30675795911</v>
+        <v>1091.718858467933</v>
       </c>
       <c r="X2" t="n">
-        <v>1520.30675795911</v>
+        <v>1091.718858467933</v>
       </c>
       <c r="Y2" t="n">
-        <v>1520.30675795911</v>
+        <v>686.3815884228235</v>
       </c>
     </row>
     <row r="3">
@@ -4389,46 +4391,46 @@
         <v>486.529580009787</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>382.689621525072</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>277.9876877980092</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809133</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851735</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I3" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J3" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K3" t="n">
-        <v>36.9119924608267</v>
+        <v>475.2419029331441</v>
       </c>
       <c r="L3" t="n">
-        <v>493.6978991635576</v>
+        <v>932.027809635875</v>
       </c>
       <c r="M3" t="n">
-        <v>850.0084995511718</v>
+        <v>932.027809635875</v>
       </c>
       <c r="N3" t="n">
-        <v>850.0084995511718</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O3" t="n">
-        <v>1306.794406253903</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P3" t="n">
-        <v>1763.580312956634</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q3" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R3" t="n">
         <v>1845.599623041337</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>911.6745856373313</v>
+        <v>809.2672732427914</v>
       </c>
       <c r="C4" t="n">
-        <v>739.7020225162473</v>
+        <v>637.2947101217073</v>
       </c>
       <c r="D4" t="n">
-        <v>576.385249643018</v>
+        <v>473.977937248478</v>
       </c>
       <c r="E4" t="n">
-        <v>410.1770437958716</v>
+        <v>307.7697314013316</v>
       </c>
       <c r="F4" t="n">
-        <v>238.315269570432</v>
+        <v>135.907957175892</v>
       </c>
       <c r="G4" t="n">
-        <v>72.05829986466412</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H4" t="n">
         <v>36.91199246082674</v>
@@ -4486,10 +4488,10 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J4" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K4" t="n">
-        <v>94.40332068498475</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L4" t="n">
         <v>430.8949765933859</v>
@@ -4510,28 +4512,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R4" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S4" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T4" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="U4" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="V4" t="n">
-        <v>1845.599623041337</v>
+        <v>1516.849542336539</v>
       </c>
       <c r="W4" t="n">
-        <v>1570.74721921385</v>
+        <v>1241.997138509052</v>
       </c>
       <c r="X4" t="n">
-        <v>1328.183322659655</v>
+        <v>999.433241954857</v>
       </c>
       <c r="Y4" t="n">
-        <v>1101.840554349397</v>
+        <v>999.433241954857</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>739.1194333973433</v>
+        <v>887.1053432625264</v>
       </c>
       <c r="C5" t="n">
-        <v>739.1194333973433</v>
+        <v>460.2046132758265</v>
       </c>
       <c r="D5" t="n">
-        <v>739.1194333973433</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E5" t="n">
-        <v>739.1194333973433</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F5" t="n">
-        <v>739.1194333973433</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G5" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H5" t="n">
         <v>36.91199246082674</v>
@@ -4568,16 +4570,16 @@
         <v>36.91199246082674</v>
       </c>
       <c r="K5" t="n">
-        <v>493.6978991635576</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="L5" t="n">
-        <v>493.6978991635576</v>
+        <v>475.942330131692</v>
       </c>
       <c r="M5" t="n">
-        <v>493.6978991635576</v>
+        <v>475.942330131692</v>
       </c>
       <c r="N5" t="n">
-        <v>932.7282368344229</v>
+        <v>475.942330131692</v>
       </c>
       <c r="O5" t="n">
         <v>932.7282368344229</v>
@@ -4592,25 +4594,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S5" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T5" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U5" t="n">
-        <v>1482.877419510889</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V5" t="n">
-        <v>1482.877419510889</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W5" t="n">
-        <v>1086.486069811236</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X5" t="n">
-        <v>739.1194333973433</v>
+        <v>1712.290977599166</v>
       </c>
       <c r="Y5" t="n">
-        <v>739.1194333973433</v>
+        <v>1306.953707554057</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C6" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E6" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273858</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J6" t="n">
-        <v>316.0561247023297</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="K6" t="n">
-        <v>772.8420314050605</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="L6" t="n">
-        <v>1229.627938107791</v>
+        <v>501.1445421254694</v>
       </c>
       <c r="M6" t="n">
-        <v>1686.413844810522</v>
+        <v>957.9304488282003</v>
       </c>
       <c r="N6" t="n">
-        <v>1686.413844810522</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O6" t="n">
-        <v>1686.413844810522</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P6" t="n">
-        <v>1686.413844810522</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q6" t="n">
-        <v>1763.580312956633</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R6" t="n">
         <v>1845.599623041337</v>
@@ -4674,7 +4676,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U6" t="n">
         <v>1437.627243819906</v>
@@ -4683,13 +4685,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1020.32454672534</v>
+        <v>126.4702432027651</v>
       </c>
       <c r="C7" t="n">
-        <v>848.3519836042556</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D7" t="n">
-        <v>685.0352107310263</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E7" t="n">
-        <v>518.8270048838798</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F7" t="n">
-        <v>346.9652306584402</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G7" t="n">
-        <v>180.7082609526723</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H7" t="n">
         <v>36.91199246082674</v>
@@ -4723,25 +4725,25 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J7" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K7" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L7" t="n">
-        <v>430.8949765933859</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="M7" t="n">
-        <v>822.0807715636367</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N7" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O7" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P7" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q7" t="n">
         <v>1845.599623041337</v>
@@ -4750,25 +4752,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S7" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T7" t="n">
-        <v>1845.599623041337</v>
+        <v>1432.125227786372</v>
       </c>
       <c r="U7" t="n">
-        <v>1845.599623041337</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="V7" t="n">
-        <v>1845.599623041337</v>
+        <v>870.229311894705</v>
       </c>
       <c r="W7" t="n">
-        <v>1679.397180301858</v>
+        <v>595.376908067218</v>
       </c>
       <c r="X7" t="n">
-        <v>1436.833283747663</v>
+        <v>352.8130115130231</v>
       </c>
       <c r="Y7" t="n">
-        <v>1210.490515437405</v>
+        <v>126.4702432027651</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>867.2279947235206</v>
+        <v>212.3026401727913</v>
       </c>
       <c r="C8" t="n">
-        <v>867.2279947235206</v>
+        <v>212.3026401727913</v>
       </c>
       <c r="D8" t="n">
-        <v>867.2279947235206</v>
+        <v>212.3026401727913</v>
       </c>
       <c r="E8" t="n">
-        <v>441.2510548713781</v>
+        <v>212.3026401727913</v>
       </c>
       <c r="F8" t="n">
-        <v>441.2510548713781</v>
+        <v>212.3026401727913</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082674</v>
+        <v>212.3026401727913</v>
       </c>
       <c r="H8" t="n">
         <v>36.91199246082674</v>
@@ -4805,19 +4807,19 @@
         <v>36.91199246082674</v>
       </c>
       <c r="K8" t="n">
-        <v>493.6978991635576</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="L8" t="n">
-        <v>950.4838058662885</v>
+        <v>475.942330131692</v>
       </c>
       <c r="M8" t="n">
-        <v>950.4838058662885</v>
+        <v>932.7282368344229</v>
       </c>
       <c r="N8" t="n">
-        <v>950.4838058662885</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="O8" t="n">
-        <v>950.4838058662885</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="P8" t="n">
         <v>1389.514143537154</v>
@@ -4835,19 +4837,19 @@
         <v>1845.599623041337</v>
       </c>
       <c r="U8" t="n">
-        <v>1587.244713637749</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V8" t="n">
-        <v>1587.244713637749</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W8" t="n">
-        <v>1587.244713637749</v>
+        <v>1449.208273341684</v>
       </c>
       <c r="X8" t="n">
-        <v>1287.076359015051</v>
+        <v>1037.488274509431</v>
       </c>
       <c r="Y8" t="n">
-        <v>1287.076359015051</v>
+        <v>632.1510044643213</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980091</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35863542273854</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J9" t="n">
-        <v>44.35863542273854</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K9" t="n">
-        <v>44.35863542273854</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="L9" t="n">
-        <v>501.1445421254694</v>
+        <v>393.2225928484407</v>
       </c>
       <c r="M9" t="n">
-        <v>501.1445421254694</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="N9" t="n">
-        <v>850.0084995511718</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="O9" t="n">
-        <v>1306.794406253903</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="P9" t="n">
-        <v>1763.580312956634</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="Q9" t="n">
-        <v>1763.580312956634</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R9" t="n">
         <v>1845.599623041337</v>
@@ -4911,7 +4913,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U9" t="n">
         <v>1437.627243819906</v>
@@ -4920,13 +4922,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="10">
@@ -4936,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>208.8845555819107</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="C10" t="n">
         <v>36.91199246082674</v>
@@ -4987,25 +4989,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S10" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T10" t="n">
-        <v>1704.705508877583</v>
+        <v>1432.125227786372</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.521060377887</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="V10" t="n">
-        <v>1142.809592985916</v>
+        <v>870.229311894705</v>
       </c>
       <c r="W10" t="n">
-        <v>867.9571891584293</v>
+        <v>595.376908067218</v>
       </c>
       <c r="X10" t="n">
-        <v>625.3932926042344</v>
+        <v>352.8130115130231</v>
       </c>
       <c r="Y10" t="n">
-        <v>399.0505242939764</v>
+        <v>126.4702432027651</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1020.413988704697</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="C11" t="n">
-        <v>1020.413988704697</v>
+        <v>835.0511185688229</v>
       </c>
       <c r="D11" t="n">
-        <v>1020.413988704697</v>
+        <v>835.0511185688229</v>
       </c>
       <c r="E11" t="n">
-        <v>1020.413988704697</v>
+        <v>409.0741787166804</v>
       </c>
       <c r="F11" t="n">
-        <v>774.0163046538721</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G11" t="n">
-        <v>369.6772422433207</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H11" t="n">
-        <v>71.80886371735554</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I11" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J11" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K11" t="n">
-        <v>36.91199246082674</v>
+        <v>814.4714747539724</v>
       </c>
       <c r="L11" t="n">
-        <v>36.91199246082674</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="M11" t="n">
-        <v>493.6978991635576</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="N11" t="n">
-        <v>932.027809635875</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="O11" t="n">
-        <v>1388.813716338606</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="P11" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q11" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R11" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S11" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T11" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U11" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="V11" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="W11" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="X11" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="Y11" t="n">
-        <v>1440.262352996227</v>
+        <v>1261.951848555523</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C12" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D12" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E12" t="n">
-        <v>277.9876877980091</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F12" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G12" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H12" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I12" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J12" t="n">
-        <v>308.6094817404178</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K12" t="n">
-        <v>308.6094817404178</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L12" t="n">
-        <v>475.2419029331441</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M12" t="n">
-        <v>475.2419029331441</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="N12" t="n">
-        <v>475.2419029331441</v>
+        <v>932.0278096358747</v>
       </c>
       <c r="O12" t="n">
-        <v>932.027809635875</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P12" t="n">
-        <v>1388.813716338606</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q12" t="n">
         <v>1845.599623041337</v>
@@ -5148,7 +5150,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T12" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U12" t="n">
         <v>1437.627243819906</v>
@@ -5157,13 +5159,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W12" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X12" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y12" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>911.6745856373313</v>
+        <v>1020.32454672534</v>
       </c>
       <c r="C13" t="n">
-        <v>739.7020225162473</v>
+        <v>848.3519836042556</v>
       </c>
       <c r="D13" t="n">
-        <v>576.385249643018</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="E13" t="n">
-        <v>410.1770437958716</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F13" t="n">
-        <v>238.315269570432</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G13" t="n">
-        <v>72.05829986466412</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H13" t="n">
         <v>36.91199246082674</v>
@@ -5200,22 +5202,22 @@
         <v>36.91199246082674</v>
       </c>
       <c r="K13" t="n">
-        <v>36.91199246082674</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L13" t="n">
-        <v>391.6013137552475</v>
+        <v>618.1289149610848</v>
       </c>
       <c r="M13" t="n">
-        <v>782.7871087254983</v>
+        <v>1009.314709931336</v>
       </c>
       <c r="N13" t="n">
-        <v>1072.572152198911</v>
+        <v>1386.806220807371</v>
       </c>
       <c r="O13" t="n">
-        <v>1428.000280878674</v>
+        <v>1742.234349487134</v>
       </c>
       <c r="P13" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q13" t="n">
         <v>1845.599623041337</v>
@@ -5236,13 +5238,13 @@
         <v>1845.599623041337</v>
       </c>
       <c r="W13" t="n">
-        <v>1570.74721921385</v>
+        <v>1679.397180301858</v>
       </c>
       <c r="X13" t="n">
-        <v>1328.183322659655</v>
+        <v>1436.833283747663</v>
       </c>
       <c r="Y13" t="n">
-        <v>1101.840554349397</v>
+        <v>1210.490515437405</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1290.52061553852</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="C14" t="n">
-        <v>1290.52061553852</v>
+        <v>1093.406027972411</v>
       </c>
       <c r="D14" t="n">
-        <v>867.2279947235206</v>
+        <v>670.1134071574108</v>
       </c>
       <c r="E14" t="n">
-        <v>441.2510548713781</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="F14" t="n">
-        <v>441.2510548713781</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="G14" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H14" t="n">
         <v>36.91199246082674</v>
@@ -5279,25 +5281,25 @@
         <v>36.91199246082674</v>
       </c>
       <c r="K14" t="n">
+        <v>36.91199246082674</v>
+      </c>
+      <c r="L14" t="n">
         <v>493.6978991635576</v>
-      </c>
-      <c r="L14" t="n">
-        <v>950.4838058662885</v>
       </c>
       <c r="M14" t="n">
         <v>950.4838058662885</v>
       </c>
       <c r="N14" t="n">
-        <v>1271.257381456703</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="O14" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P14" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q14" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R14" t="n">
         <v>1845.599623041337</v>
@@ -5315,13 +5317,13 @@
         <v>1520.30675795911</v>
       </c>
       <c r="W14" t="n">
-        <v>1290.52061553852</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="X14" t="n">
-        <v>1290.52061553852</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="Y14" t="n">
-        <v>1290.52061553852</v>
+        <v>1520.30675795911</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5360,22 @@
         <v>36.91199246082674</v>
       </c>
       <c r="K15" t="n">
-        <v>493.6978991635576</v>
+        <v>475.2419029331439</v>
       </c>
       <c r="L15" t="n">
-        <v>493.6978991635576</v>
+        <v>932.0278096358747</v>
       </c>
       <c r="M15" t="n">
-        <v>493.6978991635576</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="N15" t="n">
-        <v>932.0278096358747</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O15" t="n">
-        <v>932.0278096358747</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P15" t="n">
-        <v>1388.813716338606</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q15" t="n">
         <v>1845.599623041337</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>629.9631182453602</v>
+        <v>106.4393219715645</v>
       </c>
       <c r="C16" t="n">
-        <v>457.9905551242762</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D16" t="n">
-        <v>457.9905551242762</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E16" t="n">
-        <v>291.7823492771297</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F16" t="n">
-        <v>119.9205750516901</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G16" t="n">
         <v>36.91199246082674</v>
@@ -5464,22 +5466,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T16" t="n">
-        <v>1845.599623041337</v>
+        <v>1602.260275267237</v>
       </c>
       <c r="U16" t="n">
-        <v>1845.599623041337</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V16" t="n">
-        <v>1563.888155649366</v>
+        <v>1040.36435937557</v>
       </c>
       <c r="W16" t="n">
-        <v>1289.035751821879</v>
+        <v>765.5119555480831</v>
       </c>
       <c r="X16" t="n">
-        <v>1046.471855267684</v>
+        <v>522.9480589938881</v>
       </c>
       <c r="Y16" t="n">
-        <v>820.1290869574259</v>
+        <v>296.6052906836302</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>796.5779722300206</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="C17" t="n">
-        <v>369.6772422433207</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="D17" t="n">
-        <v>369.6772422433207</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="E17" t="n">
-        <v>369.6772422433207</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="F17" t="n">
-        <v>369.6772422433207</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="G17" t="n">
-        <v>369.6772422433207</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H17" t="n">
-        <v>71.80886371735554</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I17" t="n">
         <v>36.91199246082674</v>
@@ -5516,49 +5518,49 @@
         <v>36.91199246082674</v>
       </c>
       <c r="K17" t="n">
-        <v>36.91199246082674</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L17" t="n">
-        <v>493.6978991635576</v>
+        <v>950.4838058662885</v>
       </c>
       <c r="M17" t="n">
-        <v>493.6978991635576</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="N17" t="n">
-        <v>493.6978991635576</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="O17" t="n">
-        <v>932.7282368344229</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="P17" t="n">
-        <v>1389.514143537154</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q17" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R17" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S17" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T17" t="n">
-        <v>1520.30675795911</v>
+        <v>1751.355107374335</v>
       </c>
       <c r="U17" t="n">
-        <v>1261.951848555523</v>
+        <v>1493.000197970747</v>
       </c>
       <c r="V17" t="n">
-        <v>904.4624336817722</v>
+        <v>1135.510783096996</v>
       </c>
       <c r="W17" t="n">
-        <v>796.5779722300206</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="X17" t="n">
-        <v>796.5779722300206</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="Y17" t="n">
-        <v>796.5779722300206</v>
+        <v>739.1194333973433</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5591,31 @@
         <v>36.91199246082674</v>
       </c>
       <c r="I18" t="n">
-        <v>44.35863542273858</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J18" t="n">
-        <v>316.0561247023297</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K18" t="n">
-        <v>772.8420314050605</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="L18" t="n">
-        <v>1229.627938107791</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M18" t="n">
-        <v>1229.627938107791</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="N18" t="n">
-        <v>1306.794406253902</v>
+        <v>950.4838058662885</v>
       </c>
       <c r="O18" t="n">
-        <v>1763.580312956633</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P18" t="n">
-        <v>1763.580312956633</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q18" t="n">
-        <v>1763.580312956633</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R18" t="n">
         <v>1845.599623041337</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>211.1566783181865</v>
+        <v>629.9631182453602</v>
       </c>
       <c r="C19" t="n">
-        <v>211.1566783181865</v>
+        <v>457.9905551242762</v>
       </c>
       <c r="D19" t="n">
-        <v>211.1566783181865</v>
+        <v>294.6737822510469</v>
       </c>
       <c r="E19" t="n">
-        <v>211.1566783181865</v>
+        <v>208.7737666862663</v>
       </c>
       <c r="F19" t="n">
-        <v>203.1689621665946</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G19" t="n">
         <v>36.91199246082674</v>
@@ -5698,25 +5700,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S19" t="n">
-        <v>1675.464575560472</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T19" t="n">
-        <v>1432.125227786372</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U19" t="n">
-        <v>1151.940779286676</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V19" t="n">
-        <v>870.229311894705</v>
+        <v>1563.888155649366</v>
       </c>
       <c r="W19" t="n">
-        <v>870.229311894705</v>
+        <v>1289.035751821879</v>
       </c>
       <c r="X19" t="n">
-        <v>627.6654153405101</v>
+        <v>1046.471855267684</v>
       </c>
       <c r="Y19" t="n">
-        <v>401.3226470302521</v>
+        <v>820.1290869574259</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1745.792697513689</v>
+        <v>1008.829727808632</v>
       </c>
       <c r="C20" t="n">
-        <v>1318.891967526989</v>
+        <v>581.9289978219319</v>
       </c>
       <c r="D20" t="n">
-        <v>895.5993467119897</v>
+        <v>581.9289978219319</v>
       </c>
       <c r="E20" t="n">
-        <v>469.6224068598473</v>
+        <v>581.9289978219319</v>
       </c>
       <c r="F20" t="n">
-        <v>44.49822504924753</v>
+        <v>156.8048160113322</v>
       </c>
       <c r="G20" t="n">
-        <v>44.49822504924753</v>
+        <v>156.8048160113322</v>
       </c>
       <c r="H20" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I20" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J20" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K20" t="n">
-        <v>44.49822504924753</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L20" t="n">
-        <v>572.914647509062</v>
+        <v>950.4838058662885</v>
       </c>
       <c r="M20" t="n">
-        <v>1123.5801824935</v>
+        <v>950.4838058662885</v>
       </c>
       <c r="N20" t="n">
-        <v>1674.245717477938</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="O20" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P20" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q20" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R20" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S20" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T20" t="n">
-        <v>2224.911252462377</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U20" t="n">
-        <v>2224.911252462377</v>
+        <v>1366.319142682382</v>
       </c>
       <c r="V20" t="n">
-        <v>2224.911252462377</v>
+        <v>1008.829727808632</v>
       </c>
       <c r="W20" t="n">
-        <v>2224.911252462377</v>
+        <v>1008.829727808632</v>
       </c>
       <c r="X20" t="n">
-        <v>2165.64106180522</v>
+        <v>1008.829727808632</v>
       </c>
       <c r="Y20" t="n">
-        <v>2165.64106180522</v>
+        <v>1008.829727808632</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>611.6217160807028</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C21" t="n">
-        <v>494.1158125982075</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D21" t="n">
-        <v>390.2758541134926</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E21" t="n">
-        <v>285.5739203864298</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F21" t="n">
-        <v>191.928090069334</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G21" t="n">
-        <v>97.87431828693795</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H21" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I21" t="n">
-        <v>44.49822504924753</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J21" t="n">
-        <v>44.49822504924753</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="K21" t="n">
-        <v>595.1637600336857</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="L21" t="n">
-        <v>1145.829295018124</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.520320645319</v>
+        <v>501.1445421254695</v>
       </c>
       <c r="N21" t="n">
-        <v>1853.185855629757</v>
+        <v>957.9304488282003</v>
       </c>
       <c r="O21" t="n">
-        <v>1853.185855629757</v>
+        <v>1414.716355530931</v>
       </c>
       <c r="P21" t="n">
-        <v>1853.185855629757</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q21" t="n">
-        <v>1853.185855629757</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R21" t="n">
-        <v>1853.185855629757</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S21" t="n">
-        <v>1771.861608191012</v>
+        <v>1764.275375602591</v>
       </c>
       <c r="T21" t="n">
-        <v>1629.98167248869</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U21" t="n">
-        <v>1445.213476408327</v>
+        <v>1437.627243819906</v>
       </c>
       <c r="V21" t="n">
-        <v>1240.240337547593</v>
+        <v>1232.654104959172</v>
       </c>
       <c r="W21" t="n">
-        <v>1043.71896038081</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X21" t="n">
-        <v>880.2416141474731</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y21" t="n">
-        <v>740.5487255007655</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>379.7875610435608</v>
+        <v>857.8329054478936</v>
       </c>
       <c r="C22" t="n">
-        <v>207.8149979224768</v>
+        <v>685.8603423268096</v>
       </c>
       <c r="D22" t="n">
-        <v>44.49822504924753</v>
+        <v>522.5435694535803</v>
       </c>
       <c r="E22" t="n">
-        <v>44.49822504924753</v>
+        <v>356.3353636064338</v>
       </c>
       <c r="F22" t="n">
-        <v>44.49822504924753</v>
+        <v>184.4735893809942</v>
       </c>
       <c r="G22" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H22" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I22" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J22" t="n">
-        <v>101.9895532734055</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K22" t="n">
-        <v>328.5171544792427</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L22" t="n">
-        <v>683.2064757736634</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M22" t="n">
-        <v>1074.392270743914</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N22" t="n">
-        <v>1451.88378161995</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O22" t="n">
-        <v>1807.311910299713</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P22" t="n">
-        <v>2097.911122221614</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q22" t="n">
-        <v>2224.911252462376</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R22" t="n">
-        <v>2177.872639149549</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S22" t="n">
-        <v>2007.737591668684</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T22" t="n">
-        <v>1764.398243894584</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U22" t="n">
-        <v>1484.213795394888</v>
+        <v>1565.415174541641</v>
       </c>
       <c r="V22" t="n">
-        <v>1202.502328002917</v>
+        <v>1565.415174541641</v>
       </c>
       <c r="W22" t="n">
-        <v>927.6499241754298</v>
+        <v>1290.562770714154</v>
       </c>
       <c r="X22" t="n">
-        <v>685.0860276212348</v>
+        <v>1047.998874159959</v>
       </c>
       <c r="Y22" t="n">
-        <v>458.7432593109769</v>
+        <v>1047.998874159959</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1724.154820072098</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="C23" t="n">
-        <v>1297.254090085399</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="D23" t="n">
-        <v>873.9614692703988</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="E23" t="n">
-        <v>873.9614692703988</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="F23" t="n">
-        <v>448.8372874597989</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G23" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H23" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I23" t="n">
         <v>44.49822504924753</v>
@@ -5990,25 +5992,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K23" t="n">
-        <v>572.914647509062</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L23" t="n">
-        <v>1123.5801824935</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M23" t="n">
-        <v>1123.5801824935</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N23" t="n">
-        <v>1674.245717477938</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O23" t="n">
-        <v>2224.911252462377</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P23" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q23" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R23" t="n">
         <v>2224.911252462377</v>
@@ -6020,19 +6022,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U23" t="n">
-        <v>2224.911252462377</v>
+        <v>2070.181494048073</v>
       </c>
       <c r="V23" t="n">
-        <v>2224.911252462377</v>
+        <v>1712.692079174322</v>
       </c>
       <c r="W23" t="n">
-        <v>2144.003184363628</v>
+        <v>1316.300729474669</v>
       </c>
       <c r="X23" t="n">
-        <v>2144.003184363628</v>
+        <v>904.580730642416</v>
       </c>
       <c r="Y23" t="n">
-        <v>2144.003184363628</v>
+        <v>499.2434605973064</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>611.6217160807028</v>
+        <v>983.3471129133217</v>
       </c>
       <c r="C24" t="n">
-        <v>494.1158125982075</v>
+        <v>865.8412094308264</v>
       </c>
       <c r="D24" t="n">
-        <v>390.2758541134926</v>
+        <v>762.0012509461114</v>
       </c>
       <c r="E24" t="n">
-        <v>285.5739203864298</v>
+        <v>657.2993172190487</v>
       </c>
       <c r="F24" t="n">
-        <v>191.928090069334</v>
+        <v>563.6534869019529</v>
       </c>
       <c r="G24" t="n">
-        <v>97.87431828693795</v>
+        <v>469.5997151195569</v>
       </c>
       <c r="H24" t="n">
-        <v>44.49822504924753</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="I24" t="n">
-        <v>51.94486801115937</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="J24" t="n">
-        <v>51.94486801115937</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="K24" t="n">
-        <v>51.94486801115937</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="L24" t="n">
-        <v>201.1892506764427</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="M24" t="n">
-        <v>751.8547856608809</v>
+        <v>966.8891568663047</v>
       </c>
       <c r="N24" t="n">
-        <v>1302.520320645319</v>
+        <v>1517.554691850743</v>
       </c>
       <c r="O24" t="n">
-        <v>1853.185855629757</v>
+        <v>2068.220226835181</v>
       </c>
       <c r="P24" t="n">
-        <v>1853.185855629757</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q24" t="n">
-        <v>1853.185855629757</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R24" t="n">
-        <v>1853.185855629757</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S24" t="n">
-        <v>1771.861608191012</v>
+        <v>2143.587005023631</v>
       </c>
       <c r="T24" t="n">
-        <v>1629.98167248869</v>
+        <v>2001.707069321309</v>
       </c>
       <c r="U24" t="n">
-        <v>1445.213476408327</v>
+        <v>1816.938873240946</v>
       </c>
       <c r="V24" t="n">
-        <v>1240.240337547593</v>
+        <v>1611.965734380212</v>
       </c>
       <c r="W24" t="n">
-        <v>1043.71896038081</v>
+        <v>1415.444357213429</v>
       </c>
       <c r="X24" t="n">
-        <v>880.2416141474731</v>
+        <v>1251.967010980092</v>
       </c>
       <c r="Y24" t="n">
-        <v>740.5487255007655</v>
+        <v>1112.274122333384</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1127.679347573484</v>
+        <v>884.1145108219148</v>
       </c>
       <c r="C25" t="n">
-        <v>955.7067844524004</v>
+        <v>712.1419477008308</v>
       </c>
       <c r="D25" t="n">
-        <v>792.3900115791711</v>
+        <v>548.8251748276015</v>
       </c>
       <c r="E25" t="n">
-        <v>626.1818057320246</v>
+        <v>382.616968980455</v>
       </c>
       <c r="F25" t="n">
-        <v>454.3200315065851</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G25" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H25" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I25" t="n">
         <v>44.49822504924753</v>
@@ -6178,19 +6180,19 @@
         <v>2224.911252462376</v>
       </c>
       <c r="U25" t="n">
-        <v>1944.72680396268</v>
+        <v>2099.751015617891</v>
       </c>
       <c r="V25" t="n">
-        <v>1944.72680396268</v>
+        <v>1818.03954822592</v>
       </c>
       <c r="W25" t="n">
-        <v>1786.751981150003</v>
+        <v>1543.187144398433</v>
       </c>
       <c r="X25" t="n">
-        <v>1544.188084595808</v>
+        <v>1300.623247844238</v>
       </c>
       <c r="Y25" t="n">
-        <v>1317.84531628555</v>
+        <v>1074.28047953398</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>894.6915758509472</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="C26" t="n">
-        <v>467.7908458642473</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="D26" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="E26" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="F26" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="G26" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H26" t="n">
         <v>44.49822504924753</v>
@@ -6227,25 +6229,25 @@
         <v>407.101683866143</v>
       </c>
       <c r="K26" t="n">
-        <v>957.7672188505812</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L26" t="n">
-        <v>957.7672188505812</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M26" t="n">
-        <v>957.7672188505812</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N26" t="n">
-        <v>1218.160237973755</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O26" t="n">
-        <v>1768.825772958194</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P26" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q26" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R26" t="n">
         <v>2224.911252462377</v>
@@ -6254,22 +6256,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T26" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U26" t="n">
-        <v>2131.59720901984</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V26" t="n">
-        <v>2131.59720901984</v>
+        <v>1570.326316398649</v>
       </c>
       <c r="W26" t="n">
-        <v>2131.59720901984</v>
+        <v>1173.934966698996</v>
       </c>
       <c r="X26" t="n">
-        <v>1719.877210187587</v>
+        <v>762.2149678667428</v>
       </c>
       <c r="Y26" t="n">
-        <v>1314.539940142477</v>
+        <v>762.2149678667428</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6302,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I27" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J27" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K27" t="n">
-        <v>44.49822504924753</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="L27" t="n">
-        <v>201.1892506764427</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M27" t="n">
-        <v>751.8547856608809</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N27" t="n">
-        <v>1302.520320645319</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O27" t="n">
-        <v>1853.185855629757</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P27" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q27" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R27" t="n">
         <v>1853.185855629757</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>268.5772905989122</v>
+        <v>817.6261093758709</v>
       </c>
       <c r="C28" t="n">
-        <v>268.5772905989122</v>
+        <v>645.6535462547869</v>
       </c>
       <c r="D28" t="n">
-        <v>268.5772905989122</v>
+        <v>482.3367733815576</v>
       </c>
       <c r="E28" t="n">
-        <v>268.5772905989122</v>
+        <v>316.1285675344111</v>
       </c>
       <c r="F28" t="n">
-        <v>268.5772905989122</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5772905989122</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H28" t="n">
         <v>144.2667933089716</v>
@@ -6409,25 +6411,25 @@
         <v>2177.87263914955</v>
       </c>
       <c r="S28" t="n">
-        <v>2007.737591668685</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T28" t="n">
-        <v>1764.398243894585</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="U28" t="n">
-        <v>1484.213795394889</v>
+        <v>2033.262614171847</v>
       </c>
       <c r="V28" t="n">
-        <v>1202.502328002918</v>
+        <v>1751.551146779876</v>
       </c>
       <c r="W28" t="n">
-        <v>927.6499241754307</v>
+        <v>1476.698742952389</v>
       </c>
       <c r="X28" t="n">
-        <v>685.0860276212358</v>
+        <v>1234.134846398194</v>
       </c>
       <c r="Y28" t="n">
-        <v>458.7432593109778</v>
+        <v>1007.792078087936</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1726.839139109241</v>
+        <v>174.692738652656</v>
       </c>
       <c r="C29" t="n">
-        <v>1299.938409122541</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="D29" t="n">
-        <v>1299.938409122541</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E29" t="n">
-        <v>873.9614692703988</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F29" t="n">
-        <v>448.8372874597989</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G29" t="n">
         <v>44.49822504924753</v>
@@ -6461,52 +6463,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J29" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K29" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L29" t="n">
-        <v>407.101683866143</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M29" t="n">
-        <v>407.101683866143</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N29" t="n">
-        <v>549.9383681074144</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O29" t="n">
-        <v>1100.603903091853</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P29" t="n">
-        <v>1651.269438076291</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q29" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R29" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S29" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T29" t="n">
-        <v>2084.328553982991</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U29" t="n">
-        <v>2084.328553982991</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V29" t="n">
-        <v>1726.839139109241</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W29" t="n">
-        <v>1726.839139109241</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="X29" t="n">
-        <v>1726.839139109241</v>
+        <v>580.0300086977657</v>
       </c>
       <c r="Y29" t="n">
-        <v>1726.839139109241</v>
+        <v>174.692738652656</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6539,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I30" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J30" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K30" t="n">
-        <v>838.3748437825398</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L30" t="n">
-        <v>838.3748437825398</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M30" t="n">
-        <v>838.3748437825398</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N30" t="n">
-        <v>1389.040378766978</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O30" t="n">
-        <v>1389.040378766978</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P30" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q30" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R30" t="n">
         <v>1853.185855629757</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>354.551463246861</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="C31" t="n">
-        <v>354.551463246861</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="D31" t="n">
-        <v>354.551463246861</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="E31" t="n">
-        <v>354.551463246861</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F31" t="n">
-        <v>354.551463246861</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G31" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H31" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I31" t="n">
         <v>44.49822504924753</v>
@@ -6637,34 +6639,34 @@
         <v>1807.311910299713</v>
       </c>
       <c r="P31" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q31" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="R31" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S31" t="n">
-        <v>2054.776204981511</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T31" t="n">
-        <v>1811.436857207411</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U31" t="n">
-        <v>1531.252408707716</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V31" t="n">
-        <v>1249.540941315744</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W31" t="n">
-        <v>974.6885374882575</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="X31" t="n">
-        <v>732.1246409340625</v>
+        <v>685.0860276212358</v>
       </c>
       <c r="Y31" t="n">
-        <v>505.7818726238046</v>
+        <v>626.1818057320246</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1745.792697513689</v>
+        <v>1393.342889338594</v>
       </c>
       <c r="C32" t="n">
-        <v>1318.891967526989</v>
+        <v>966.4421593518939</v>
       </c>
       <c r="D32" t="n">
-        <v>895.5993467119897</v>
+        <v>966.4421593518939</v>
       </c>
       <c r="E32" t="n">
-        <v>469.6224068598473</v>
+        <v>966.4421593518939</v>
       </c>
       <c r="F32" t="n">
-        <v>44.49822504924753</v>
+        <v>541.3179775412941</v>
       </c>
       <c r="G32" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H32" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I32" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J32" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K32" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L32" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M32" t="n">
-        <v>1100.603903091853</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N32" t="n">
-        <v>1100.603903091853</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O32" t="n">
-        <v>1100.603903091853</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P32" t="n">
-        <v>1651.269438076291</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q32" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R32" t="n">
         <v>2224.911252462377</v>
@@ -6740,10 +6742,10 @@
         <v>2224.911252462377</v>
       </c>
       <c r="X32" t="n">
-        <v>2224.911252462377</v>
+        <v>1813.191253630124</v>
       </c>
       <c r="Y32" t="n">
-        <v>2165.64106180522</v>
+        <v>1813.191253630124</v>
       </c>
     </row>
     <row r="33">
@@ -6780,25 +6782,25 @@
         <v>316.1957143288386</v>
       </c>
       <c r="K33" t="n">
-        <v>866.8612493132769</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L33" t="n">
-        <v>1417.526784297715</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M33" t="n">
-        <v>1417.526784297715</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="N33" t="n">
-        <v>1417.526784297715</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="O33" t="n">
-        <v>1771.166545545054</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P33" t="n">
-        <v>1771.166545545054</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q33" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R33" t="n">
         <v>1853.185855629757</v>
@@ -6832,52 +6834,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1127.679347573484</v>
+        <v>729.0902991667042</v>
       </c>
       <c r="C34" t="n">
-        <v>955.7067844524004</v>
+        <v>557.1177360456202</v>
       </c>
       <c r="D34" t="n">
-        <v>792.3900115791711</v>
+        <v>393.8009631723909</v>
       </c>
       <c r="E34" t="n">
-        <v>626.1818057320246</v>
+        <v>227.5927573252444</v>
       </c>
       <c r="F34" t="n">
-        <v>454.3200315065851</v>
+        <v>55.73098309980486</v>
       </c>
       <c r="G34" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H34" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I34" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J34" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K34" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L34" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M34" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N34" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O34" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P34" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q34" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R34" t="n">
         <v>2224.911252462377</v>
@@ -6889,19 +6891,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U34" t="n">
-        <v>2224.911252462377</v>
+        <v>1944.726803962681</v>
       </c>
       <c r="V34" t="n">
-        <v>2061.60438497749</v>
+        <v>1663.01533657071</v>
       </c>
       <c r="W34" t="n">
-        <v>1786.751981150003</v>
+        <v>1388.162932743223</v>
       </c>
       <c r="X34" t="n">
-        <v>1544.188084595808</v>
+        <v>1145.599036189028</v>
       </c>
       <c r="Y34" t="n">
-        <v>1317.84531628555</v>
+        <v>919.2562678787699</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>893.7677857163897</v>
+        <v>549.6059248847508</v>
       </c>
       <c r="C35" t="n">
-        <v>893.7677857163897</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="D35" t="n">
-        <v>470.47516490139</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="E35" t="n">
-        <v>44.49822504924753</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="F35" t="n">
-        <v>44.49822504924753</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G35" t="n">
         <v>44.49822504924753</v>
@@ -6935,52 +6937,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J35" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K35" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L35" t="n">
-        <v>44.49822504924753</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M35" t="n">
-        <v>595.1637600336857</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N35" t="n">
-        <v>595.1637600336857</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O35" t="n">
-        <v>1100.603903091853</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P35" t="n">
-        <v>1651.269438076291</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q35" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R35" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S35" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T35" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U35" t="n">
-        <v>2052.985820334903</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V35" t="n">
-        <v>1695.496405461153</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="W35" t="n">
-        <v>1299.105055761499</v>
+        <v>1366.663193762113</v>
       </c>
       <c r="X35" t="n">
-        <v>1299.105055761499</v>
+        <v>954.9431949298605</v>
       </c>
       <c r="Y35" t="n">
-        <v>893.7677857163897</v>
+        <v>549.6059248847508</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7013,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I36" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J36" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K36" t="n">
-        <v>44.49822504924753</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L36" t="n">
-        <v>44.49822504924753</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M36" t="n">
-        <v>595.1637600336857</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N36" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O36" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P36" t="n">
-        <v>1696.494830002562</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q36" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R36" t="n">
         <v>1853.185855629757</v>
@@ -7093,52 +7095,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J37" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K37" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L37" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M37" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N37" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O37" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P37" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q37" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R37" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S37" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T37" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U37" t="n">
-        <v>1484.213795394888</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V37" t="n">
-        <v>1202.502328002917</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W37" t="n">
-        <v>1127.679347573484</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X37" t="n">
-        <v>1127.679347573484</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y37" t="n">
-        <v>1127.679347573484</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1230.141144670584</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="C38" t="n">
-        <v>803.240414683884</v>
+        <v>1632.703658905035</v>
       </c>
       <c r="D38" t="n">
-        <v>803.240414683884</v>
+        <v>1632.703658905035</v>
       </c>
       <c r="E38" t="n">
-        <v>377.2634748317415</v>
+        <v>1206.726719052893</v>
       </c>
       <c r="F38" t="n">
-        <v>377.2634748317415</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G38" t="n">
         <v>377.2634748317415</v>
@@ -7175,13 +7177,13 @@
         <v>407.101683866143</v>
       </c>
       <c r="K38" t="n">
-        <v>667.4947029893171</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L38" t="n">
-        <v>1218.160237973755</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M38" t="n">
-        <v>1218.160237973755</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="N38" t="n">
         <v>1768.825772958194</v>
@@ -7199,25 +7201,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S38" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T38" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U38" t="n">
-        <v>2224.911252462377</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V38" t="n">
-        <v>2224.911252462377</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W38" t="n">
-        <v>2055.326779007224</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="X38" t="n">
-        <v>2055.326779007224</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="Y38" t="n">
-        <v>1649.989508962114</v>
+        <v>1641.263477976562</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7256,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K39" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L39" t="n">
-        <v>44.49822504924753</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M39" t="n">
-        <v>595.1637600336857</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="N39" t="n">
-        <v>1145.829295018124</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="O39" t="n">
-        <v>1696.494830002562</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P39" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q39" t="n">
         <v>1853.185855629757</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>485.750951392604</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="C40" t="n">
-        <v>313.77838827152</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="D40" t="n">
-        <v>313.77838827152</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E40" t="n">
-        <v>147.5701824243736</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F40" t="n">
-        <v>44.49822504924753</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G40" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H40" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I40" t="n">
         <v>44.49822504924753</v>
@@ -7354,28 +7356,28 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R40" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S40" t="n">
-        <v>2224.911252462377</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T40" t="n">
-        <v>1981.571904688276</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U40" t="n">
-        <v>1701.387456188581</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V40" t="n">
-        <v>1419.67598879661</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.823584969123</v>
+        <v>1034.953908133366</v>
       </c>
       <c r="X40" t="n">
-        <v>902.2596884149276</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="Y40" t="n">
-        <v>675.9169201046697</v>
+        <v>792.3900115791711</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2055.996279720035</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="C41" t="n">
-        <v>2055.996279720035</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="D41" t="n">
-        <v>1632.703658905035</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="E41" t="n">
-        <v>1206.726719052893</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="F41" t="n">
-        <v>781.6025372422929</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G41" t="n">
-        <v>377.2634748317415</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H41" t="n">
         <v>79.39509630577632</v>
@@ -7418,7 +7420,7 @@
         <v>407.101683866143</v>
       </c>
       <c r="M41" t="n">
-        <v>549.9383681074144</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N41" t="n">
         <v>549.9383681074144</v>
@@ -7436,25 +7438,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S41" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T41" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U41" t="n">
-        <v>2224.911252462377</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V41" t="n">
-        <v>2224.911252462377</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W41" t="n">
-        <v>2224.911252462377</v>
+        <v>1244.872128276909</v>
       </c>
       <c r="X41" t="n">
-        <v>2055.996279720035</v>
+        <v>889.0714287614373</v>
       </c>
       <c r="Y41" t="n">
-        <v>2055.996279720035</v>
+        <v>483.7341587163277</v>
       </c>
     </row>
     <row r="42">
@@ -7494,19 +7496,19 @@
         <v>602.6104029955975</v>
       </c>
       <c r="L42" t="n">
-        <v>1153.275937980036</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.520320645319</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="N42" t="n">
-        <v>1302.520320645319</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O42" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P42" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q42" t="n">
         <v>1853.185855629757</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>962.2361343535731</v>
+        <v>268.5772905989122</v>
       </c>
       <c r="C43" t="n">
-        <v>790.2635712324891</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D43" t="n">
-        <v>626.9467983592598</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E43" t="n">
-        <v>460.7385925121133</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F43" t="n">
-        <v>288.8768182866737</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G43" t="n">
-        <v>122.6198485809059</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H43" t="n">
-        <v>122.6198485809059</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I43" t="n">
         <v>44.49822504924753</v>
@@ -7570,22 +7572,22 @@
         <v>101.9895532734055</v>
       </c>
       <c r="K43" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L43" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M43" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N43" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O43" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P43" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q43" t="n">
         <v>2224.911252462377</v>
@@ -7594,25 +7596,25 @@
         <v>2177.87263914955</v>
       </c>
       <c r="S43" t="n">
-        <v>2177.87263914955</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T43" t="n">
-        <v>2177.87263914955</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U43" t="n">
-        <v>2177.87263914955</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V43" t="n">
-        <v>1896.161171757579</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W43" t="n">
-        <v>1621.308767930092</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="X43" t="n">
-        <v>1378.744871375897</v>
+        <v>685.0860276212358</v>
       </c>
       <c r="Y43" t="n">
-        <v>1152.402103065639</v>
+        <v>458.7432593109778</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1845.599623041337</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="C44" t="n">
-        <v>1418.698893054637</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="D44" t="n">
-        <v>995.4062722396372</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="E44" t="n">
-        <v>569.4293323874948</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="F44" t="n">
-        <v>144.305150576895</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G44" t="n">
-        <v>144.305150576895</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H44" t="n">
-        <v>71.80886371735554</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I44" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J44" t="n">
-        <v>36.91199246082674</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K44" t="n">
-        <v>36.91199246082674</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L44" t="n">
-        <v>475.2419029331441</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M44" t="n">
-        <v>932.027809635875</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N44" t="n">
-        <v>932.027809635875</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="O44" t="n">
-        <v>1388.813716338606</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P44" t="n">
-        <v>1845.599623041337</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q44" t="n">
-        <v>1845.599623041337</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R44" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S44" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T44" t="n">
-        <v>1845.599623041337</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U44" t="n">
-        <v>1845.599623041337</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V44" t="n">
-        <v>1845.599623041337</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W44" t="n">
-        <v>1845.599623041337</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X44" t="n">
-        <v>1845.599623041337</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="Y44" t="n">
-        <v>1845.599623041337</v>
+        <v>746.7056659857641</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C45" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D45" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E45" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F45" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G45" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H45" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I45" t="n">
-        <v>36.9119924608267</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J45" t="n">
-        <v>308.6094817404178</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K45" t="n">
-        <v>475.2419029331441</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L45" t="n">
-        <v>475.2419029331441</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M45" t="n">
-        <v>932.027809635875</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N45" t="n">
-        <v>1388.813716338606</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O45" t="n">
-        <v>1388.813716338606</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P45" t="n">
-        <v>1388.813716338606</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q45" t="n">
-        <v>1845.599623041337</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R45" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S45" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T45" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U45" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V45" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W45" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X45" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y45" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>453.7205748723814</v>
+        <v>682.0516858538774</v>
       </c>
       <c r="C46" t="n">
-        <v>281.7480117512974</v>
+        <v>682.0516858538774</v>
       </c>
       <c r="D46" t="n">
-        <v>118.4312388780681</v>
+        <v>518.7349129806481</v>
       </c>
       <c r="E46" t="n">
-        <v>36.91199246082674</v>
+        <v>352.5267071335016</v>
       </c>
       <c r="F46" t="n">
-        <v>36.91199246082674</v>
+        <v>352.5267071335016</v>
       </c>
       <c r="G46" t="n">
-        <v>36.91199246082674</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H46" t="n">
-        <v>36.91199246082674</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I46" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J46" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K46" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L46" t="n">
-        <v>320.9309218908219</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M46" t="n">
-        <v>695.080641322875</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N46" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O46" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P46" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q46" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R46" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S46" t="n">
-        <v>1675.464575560472</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T46" t="n">
-        <v>1432.125227786372</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="U46" t="n">
-        <v>1151.940779286676</v>
+        <v>1897.688190649854</v>
       </c>
       <c r="V46" t="n">
-        <v>870.229311894705</v>
+        <v>1615.976723257883</v>
       </c>
       <c r="W46" t="n">
-        <v>870.229311894705</v>
+        <v>1341.124319430396</v>
       </c>
       <c r="X46" t="n">
-        <v>870.229311894705</v>
+        <v>1098.560422876201</v>
       </c>
       <c r="Y46" t="n">
-        <v>643.8865435844471</v>
+        <v>872.2176545659431</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
         <v>497.1645065551435</v>
@@ -7985,22 +7987,22 @@
         <v>499.7119481929572</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>361.4449756170225</v>
       </c>
       <c r="N2" t="n">
-        <v>114.4784903637085</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,28 +8060,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>465.1567191589064</v>
       </c>
       <c r="L3" t="n">
         <v>483.9149924745637</v>
       </c>
       <c r="M3" t="n">
-        <v>383.0064778735545</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>482.7429339738759</v>
       </c>
       <c r="O3" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,13 +8136,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>20.964654452712</v>
+        <v>60.65522297608413</v>
       </c>
       <c r="L4" t="n">
-        <v>361.8093214193388</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
@@ -8216,19 +8218,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>481.7770299789515</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>480.7446103807745</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P5" t="n">
         <v>498.9752675705655</v>
@@ -8292,10 +8294,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
         <v>483.9149924745637</v>
@@ -8304,19 +8306,19 @@
         <v>484.4966862726622</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>456.5786519614261</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q6" t="n">
-        <v>100.6929657092928</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,16 +8373,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>380.1908016072373</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M7" t="n">
-        <v>417.7126065281028</v>
+        <v>400.5044494188121</v>
       </c>
       <c r="N7" t="n">
         <v>402.0534574160406</v>
@@ -8392,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,22 +8455,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>499.7119481929572</v>
+        <v>481.7770299789515</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>481.0403493565598</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
         <v>20.61111433333334</v>
@@ -8535,19 +8537,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>483.9149924745637</v>
+        <v>382.4247840754558</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N9" t="n">
-        <v>373.7308639970794</v>
+        <v>482.7429339738759</v>
       </c>
       <c r="O9" t="n">
         <v>484.5717954825564</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>454.9120992556681</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M11" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>480.0371081600191</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
         <v>498.7908651163583</v>
       </c>
       <c r="P11" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,19 +8768,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L12" t="n">
-        <v>190.8306636765794</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>464.1005135391146</v>
       </c>
       <c r="O12" t="n">
         <v>484.5717954825564</v>
@@ -8787,7 +8789,7 @@
         <v>483.1707469651629</v>
       </c>
       <c r="Q12" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8848,7 +8850,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K13" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
         <v>380.1908016072373</v>
@@ -8857,16 +8859,16 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N13" t="n">
-        <v>313.4610661002594</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O13" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>315.9153581548562</v>
+        <v>126.7901678844537</v>
       </c>
       <c r="Q13" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8927,19 +8929,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
         <v>499.7119481929572</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N14" t="n">
-        <v>361.2933355520367</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O14" t="n">
-        <v>498.7908651163583</v>
+        <v>480.1484446815972</v>
       </c>
       <c r="P14" t="n">
         <v>37.5753618102313</v>
@@ -8948,7 +8950,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,25 +9008,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>483.7991395936675</v>
+        <v>465.1567191589062</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N15" t="n">
-        <v>464.1005135391146</v>
+        <v>482.7429339738759</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9164,28 +9166,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L17" t="n">
         <v>499.7119481929572</v>
       </c>
       <c r="M17" t="n">
-        <v>37.43126289943181</v>
+        <v>361.4449756170225</v>
       </c>
       <c r="N17" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
-        <v>480.8559469023526</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P17" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
         <v>483.9149924745637</v>
@@ -9252,19 +9254,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>99.28895563385595</v>
+        <v>482.7429339738759</v>
       </c>
       <c r="O18" t="n">
-        <v>484.5717954825564</v>
+        <v>465.9293750477951</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,19 +9403,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L20" t="n">
-        <v>572.0660045132436</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M20" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>593.5074359500402</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O20" t="n">
-        <v>593.6187724716183</v>
+        <v>480.1484446815972</v>
       </c>
       <c r="P20" t="n">
         <v>37.5753618102313</v>
@@ -9474,28 +9476,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>181.370543772121</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N21" t="n">
-        <v>577.5708413291358</v>
+        <v>482.7429339738759</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>457.0064649527129</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9556,10 +9558,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K22" t="n">
-        <v>249.7804132464869</v>
+        <v>60.65522297608413</v>
       </c>
       <c r="L22" t="n">
         <v>380.1908016072373</v>
@@ -9577,7 +9579,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9638,28 +9640,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>569.51856287543</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M23" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>593.5074359500402</v>
+        <v>547.8252218830994</v>
       </c>
       <c r="O23" t="n">
         <v>593.6187724716183</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
         <v>20.61111433333334</v>
@@ -9720,7 +9722,7 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>173.266988396334</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
         <v>579.3245936279221</v>
@@ -9732,7 +9734,7 @@
         <v>579.3997028378163</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>180.044604464622</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
@@ -9875,7 +9877,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
         <v>38.31204243262292</v>
@@ -9884,19 +9886,19 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>300.3028744740158</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O26" t="n">
         <v>593.6187724716183</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q26" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>459.4832504061476</v>
       </c>
       <c r="L27" t="n">
-        <v>180.7888499740227</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N29" t="n">
-        <v>181.5591018660332</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O29" t="n">
-        <v>593.6187724716183</v>
+        <v>571.1449214366446</v>
       </c>
       <c r="P29" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>549.852899948183</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
@@ -10200,19 +10202,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q30" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10285,10 +10287,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>315.915358154857</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
         <v>35.76460079480934</v>
@@ -10355,22 +10357,22 @@
         <v>594.539855548217</v>
       </c>
       <c r="M32" t="n">
-        <v>181.710741931019</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O32" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P32" t="n">
-        <v>593.8031749258255</v>
+        <v>110.6369203512731</v>
       </c>
       <c r="Q32" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,10 +10430,10 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
@@ -10440,16 +10442,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>380.3837697700394</v>
+        <v>550.6255558370718</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10504,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
         <v>249.7804132464869</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L35" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M35" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N35" t="n">
-        <v>37.27962283444602</v>
+        <v>204.7674648980005</v>
       </c>
       <c r="O35" t="n">
-        <v>547.9365584046775</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>577.9986543204228</v>
+        <v>541.7026457419896</v>
       </c>
       <c r="Q36" t="n">
-        <v>98.17301358442491</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10741,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K37" t="n">
         <v>249.7804132464869</v>
@@ -10823,16 +10825,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>298.7878524343791</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L38" t="n">
         <v>594.539855548217</v>
       </c>
       <c r="M38" t="n">
-        <v>37.43126289943181</v>
+        <v>300.4545145390017</v>
       </c>
       <c r="N38" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
         <v>37.3909593560241</v>
@@ -10902,25 +10904,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M39" t="n">
-        <v>579.3245936279221</v>
+        <v>268.7645418748068</v>
       </c>
       <c r="N39" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>180.0446044646217</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11066,10 +11068,10 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M41" t="n">
-        <v>181.710741931019</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O41" t="n">
         <v>593.6187724716183</v>
@@ -11142,13 +11144,13 @@
         <v>578.6270469489275</v>
       </c>
       <c r="L42" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>173.8486821944324</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>259.4889279983319</v>
       </c>
       <c r="O42" t="n">
         <v>579.3997028378163</v>
@@ -11157,7 +11159,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11218,7 +11220,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464876</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L43" t="n">
         <v>380.1908016072373</v>
@@ -11236,7 +11238,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L44" t="n">
-        <v>481.069527758196</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M44" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O44" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>190.7148107956832</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>460.2559062950365</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>484.1469440493127</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11458,10 +11460,10 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>21.91875989570122</v>
+        <v>380.190801607238</v>
       </c>
       <c r="M46" t="n">
-        <v>400.5044494188121</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N46" t="n">
         <v>402.0534574160406</v>
@@ -22544,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>195.3067033330709</v>
       </c>
       <c r="D2" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>69.21465912996527</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -22595,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22717,10 +22719,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>66.58839494079558</v>
       </c>
       <c r="H4" t="n">
-        <v>107.5634614771281</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -22750,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
@@ -22762,7 +22764,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22771,7 +22773,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -22781,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
@@ -22796,10 +22798,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -22832,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>63.70982879417613</v>
+        <v>275.6272398561812</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22939,25 +22941,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>81.59016925535418</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -22990,19 +22992,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>107.5634614771281</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -23027,16 +23029,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>121.2529535058607</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -23075,19 +23077,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>110.4361277674588</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23176,10 +23178,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>99.60164079042603</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
@@ -23227,10 +23229,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>101.4207812742428</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>176.9392327821771</v>
+        <v>52.43237559919862</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -23324,7 +23326,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>107.5634614771281</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -23476,7 +23478,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>107.5634614771281</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23495,22 +23497,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>89.73746464470827</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -23555,7 +23557,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>164.9391552062724</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -23653,19 +23655,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>101.4207812742427</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>82.41590324375544</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -23704,10 +23706,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23732,7 +23734,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
@@ -23744,13 +23746,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>125.4142447354811</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23792,7 +23794,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>285.6218193654225</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
@@ -23890,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>79.50510837954221</v>
       </c>
       <c r="F19" t="n">
-        <v>162.2353174931092</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -23938,19 +23940,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23966,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23984,7 +23986,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>176.1957994257052</v>
       </c>
       <c r="I20" t="n">
         <v>34.5479025439635</v>
@@ -24020,19 +24022,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>348.9253100933448</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>110.0981677402031</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,13 +24135,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>18.50841905774436</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24206,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24260,19 +24262,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>255.7713603095518</v>
+        <v>102.588899479391</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>312.328448784896</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,13 +24420,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>153.4739695386594</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>115.7088052046618</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24443,10 +24445,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
         <v>421.717170453621</v>
@@ -24458,7 +24460,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>34.5479025439635</v>
@@ -24494,22 +24496,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>163.3904573014404</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>180.3631095772874</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24601,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>19.29091348988597</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24649,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>134.2186792867735</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24680,19 +24682,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>293.7391542194586</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
         <v>294.8896947407055</v>
@@ -24728,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
-        <v>182.8630649368128</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>38.54620374177082</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -24847,7 +24849,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>165.7641609568363</v>
       </c>
     </row>
     <row r="32">
@@ -24920,22 +24922,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>400.2956717864458</v>
+        <v>237.8817141039888</v>
       </c>
       <c r="H32" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24980,10 +24982,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>342.6064085940732</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>153.4739695386584</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
@@ -25129,10 +25131,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>117.2205539080134</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25154,19 +25156,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>322.8707716361305</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>294.8896947407055</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>85.56518250335316</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25217,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W37" t="n">
-        <v>198.029129164074</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>414.1575018060211</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -25400,10 +25402,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25439,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>224.5388074820552</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
@@ -25558,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>68.10191868181039</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>106.2309441183559</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25631,19 +25633,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>240.3769758290122</v>
+        <v>55.36010632361302</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>118.5577190788904</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>21.43047528078506</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25865,25 +25867,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>223.1183707497614</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>268.3325219007095</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>83.84206983560598</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>100.7753911293526</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>444326.8468549412</v>
+        <v>444326.8468549413</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>444326.8468549412</v>
+        <v>444326.8468549413</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>444326.8468549412</v>
+        <v>444326.8468549413</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>500678.2869155986</v>
+        <v>444326.8468549413</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>500678.2869155986</v>
+        <v>500678.2869155985</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>500678.2869155985</v>
+        <v>500678.2869155986</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>500678.2869155984</v>
+        <v>500678.2869155985</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>500678.2869155986</v>
+        <v>500678.2869155985</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>444326.8468549413</v>
+        <v>500678.2869155986</v>
       </c>
     </row>
   </sheetData>
@@ -26323,19 +26325,19 @@
         <v>127796.9642511872</v>
       </c>
       <c r="F2" t="n">
-        <v>127796.9642511871</v>
+        <v>127796.9642511872</v>
       </c>
       <c r="G2" t="n">
         <v>127796.9642511872</v>
       </c>
       <c r="H2" t="n">
-        <v>144000.362781502</v>
+        <v>127796.9642511872</v>
       </c>
       <c r="I2" t="n">
         <v>144000.3627815021</v>
       </c>
       <c r="J2" t="n">
-        <v>144000.3627815021</v>
+        <v>144000.362781502</v>
       </c>
       <c r="K2" t="n">
         <v>144000.362781502</v>
@@ -26347,13 +26349,13 @@
         <v>144000.362781502</v>
       </c>
       <c r="N2" t="n">
+        <v>144000.362781502</v>
+      </c>
+      <c r="O2" t="n">
         <v>144000.3627815021</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>144000.362781502</v>
-      </c>
-      <c r="P2" t="n">
-        <v>127796.9642511872</v>
       </c>
     </row>
     <row r="3">
@@ -26381,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>25585.42285561533</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>25216.73195181807</v>
       </c>
       <c r="J3" t="n">
         <v>120722.5169427569</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46301.12075802255</v>
+        <v>46301.12075802254</v>
       </c>
       <c r="C4" t="n">
         <v>46301.12075802254</v>
       </c>
       <c r="D4" t="n">
-        <v>46301.12075802254</v>
+        <v>46301.12075802255</v>
       </c>
       <c r="E4" t="n">
         <v>46301.12075802254</v>
@@ -26433,7 +26435,7 @@
         <v>46301.12075802253</v>
       </c>
       <c r="H4" t="n">
-        <v>52194.43267059495</v>
+        <v>46301.12075802253</v>
       </c>
       <c r="I4" t="n">
         <v>52194.43267059495</v>
@@ -26445,19 +26447,19 @@
         <v>52194.43267059495</v>
       </c>
       <c r="L4" t="n">
-        <v>52194.43267059494</v>
+        <v>52194.43267059495</v>
       </c>
       <c r="M4" t="n">
         <v>52194.43267059494</v>
       </c>
       <c r="N4" t="n">
-        <v>52194.43267059495</v>
+        <v>52194.43267059494</v>
       </c>
       <c r="O4" t="n">
         <v>52194.43267059495</v>
       </c>
       <c r="P4" t="n">
-        <v>46301.12075802255</v>
+        <v>52194.43267059495</v>
       </c>
     </row>
     <row r="5">
@@ -26485,7 +26487,7 @@
         <v>28053.11427022832</v>
       </c>
       <c r="H5" t="n">
-        <v>33818.65103742812</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="I5" t="n">
         <v>33818.65103742812</v>
@@ -26509,7 +26511,7 @@
         <v>33818.65103742812</v>
       </c>
       <c r="P5" t="n">
-        <v>28053.11427022832</v>
+        <v>33818.65103742812</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-134810.5913951841</v>
+        <v>-134810.5913951842</v>
       </c>
       <c r="C6" t="n">
-        <v>19815.12922293632</v>
+        <v>19815.12922293639</v>
       </c>
       <c r="D6" t="n">
-        <v>19815.12922293635</v>
+        <v>19815.12922293636</v>
       </c>
       <c r="E6" t="n">
+        <v>53442.72922293632</v>
+      </c>
+      <c r="F6" t="n">
+        <v>53442.72922293632</v>
+      </c>
+      <c r="G6" t="n">
+        <v>53442.72922293632</v>
+      </c>
+      <c r="H6" t="n">
         <v>53442.72922293634</v>
       </c>
-      <c r="F6" t="n">
-        <v>53442.72922293629</v>
-      </c>
-      <c r="G6" t="n">
-        <v>53442.72922293636</v>
-      </c>
-      <c r="H6" t="n">
-        <v>32401.85621786362</v>
-      </c>
       <c r="I6" t="n">
-        <v>57987.279073479</v>
+        <v>32770.54712166093</v>
       </c>
       <c r="J6" t="n">
-        <v>-62735.23786927789</v>
+        <v>-62735.23786927792</v>
       </c>
       <c r="K6" t="n">
         <v>57987.27907347895</v>
       </c>
       <c r="L6" t="n">
-        <v>57987.27907347892</v>
+        <v>57987.27907347895</v>
       </c>
       <c r="M6" t="n">
         <v>57987.27907347895</v>
       </c>
       <c r="N6" t="n">
-        <v>57987.27907347903</v>
+        <v>57987.27907347899</v>
       </c>
       <c r="O6" t="n">
-        <v>57987.27907347897</v>
+        <v>57987.279073479</v>
       </c>
       <c r="P6" t="n">
-        <v>53442.72922293633</v>
+        <v>57987.27907347895</v>
       </c>
     </row>
   </sheetData>
@@ -26805,7 +26807,7 @@
         <v>461.3999057603342</v>
       </c>
       <c r="H4" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="I4" t="n">
         <v>556.2278131155941</v>
@@ -26829,7 +26831,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
     </row>
   </sheetData>
@@ -27027,10 +27029,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>94.82790735525992</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>461.3999057603342</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>461.3999057603342</v>
@@ -34705,22 +34707,22 @@
         <v>461.3999057603342</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>324.0137127175907</v>
       </c>
       <c r="N2" t="n">
-        <v>77.19886752926243</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,28 +34780,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>442.7574853255731</v>
       </c>
       <c r="L3" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="M3" t="n">
-        <v>359.9096973612265</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="P3" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L4" t="n">
-        <v>339.8905615236376</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
@@ -34936,19 +34938,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>443.4649875463285</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>443.4649875463285</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>461.3999057603342</v>
@@ -35012,10 +35014,10 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>461.3999057603342</v>
@@ -35024,19 +35026,19 @@
         <v>461.3999057603342</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>435.2356237478845</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q6" t="n">
-        <v>77.94592742031428</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,16 +35093,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>358.2720417115361</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>395.137166636617</v>
+        <v>377.9290095273263</v>
       </c>
       <c r="N7" t="n">
         <v>381.3045564404402</v>
@@ -35112,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>443.4649875463285</v>
+      </c>
+      <c r="M8" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>443.4649875463285</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
@@ -35246,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -35255,19 +35257,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>359.9096973612262</v>
+      </c>
+      <c r="M9" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
       <c r="N9" t="n">
-        <v>352.3878357835378</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O9" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>419.1474984608587</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M11" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="P11" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L12" t="n">
-        <v>168.3155769623498</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>442.7574853255729</v>
       </c>
       <c r="O12" t="n">
         <v>461.3999057603342</v>
@@ -35507,7 +35509,7 @@
         <v>461.3999057603342</v>
       </c>
       <c r="Q12" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L13" t="n">
         <v>358.2720417115361</v>
@@ -35577,16 +35579,16 @@
         <v>395.137166636617</v>
       </c>
       <c r="N13" t="n">
-        <v>292.712165124659</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O13" t="n">
         <v>359.0183117977405</v>
       </c>
       <c r="P13" t="n">
-        <v>293.5345574968697</v>
+        <v>104.4093672264672</v>
       </c>
       <c r="Q13" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,19 +35649,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N14" t="n">
-        <v>324.0137127175907</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O14" t="n">
-        <v>461.3999057603342</v>
+        <v>442.7574853255731</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35668,7 +35670,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
+        <v>442.7574853255729</v>
+      </c>
+      <c r="L15" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N15" t="n">
-        <v>442.7574853255729</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,28 +35886,28 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L17" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>324.0137127175907</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>443.4649875463285</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P17" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>461.3999057603342</v>
@@ -35972,19 +35974,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>77.94592742031428</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O18" t="n">
+        <v>442.7574853255729</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
       <c r="R18" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,19 +36123,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L20" t="n">
-        <v>533.7539620806207</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M20" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O20" t="n">
-        <v>556.2278131155941</v>
+        <v>442.7574853255731</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36194,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>158.2737632597931</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N21" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>435.2356237478842</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>228.8157587937749</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L22" t="n">
         <v>358.2720417115361</v>
@@ -36297,7 +36299,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36360,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>533.7539620806207</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>556.2278131155941</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="O23" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36440,7 +36442,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>150.7519016821044</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>556.2278131155941</v>
@@ -36452,7 +36454,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>158.2737632597933</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -36604,19 +36606,19 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>263.0232516395698</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="O26" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q26" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="L27" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N27" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O27" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N29" t="n">
-        <v>144.2794790315872</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O29" t="n">
-        <v>556.2278131155941</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="P29" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>527.4536661148496</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36920,19 +36922,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q30" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37005,10 +37007,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P31" t="n">
-        <v>293.5345574968705</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q31" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -37075,22 +37077,22 @@
         <v>556.2278131155941</v>
       </c>
       <c r="M32" t="n">
-        <v>144.2794790315872</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P32" t="n">
-        <v>556.2278131155941</v>
+        <v>73.06155854104179</v>
       </c>
       <c r="Q32" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>527.4536661148496</v>
+      </c>
+      <c r="P33" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L33" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>357.2118800478172</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K34" t="n">
         <v>228.8157587937749</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M35" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="O35" t="n">
-        <v>510.5455990486534</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>556.2278131155941</v>
+        <v>519.9318045371609</v>
       </c>
       <c r="Q36" t="n">
-        <v>75.42597529544641</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K37" t="n">
         <v>228.8157587937749</v>
@@ -37543,16 +37545,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>263.0232516395698</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L38" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="N38" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M39" t="n">
-        <v>556.2278131155941</v>
+        <v>245.6677613624788</v>
       </c>
       <c r="N39" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,10 +37788,10 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
         <v>144.2794790315872</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>556.2278131155941</v>
@@ -37862,13 +37864,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L42" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>150.7519016821045</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>238.1458997847902</v>
       </c>
       <c r="O42" t="n">
         <v>556.2278131155941</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37940,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K43" t="n">
-        <v>228.8157587937756</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L43" t="n">
         <v>358.2720417115361</v>
@@ -37956,7 +37958,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q43" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L44" t="n">
-        <v>442.7574853255731</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="M44" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O44" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>168.3155769623498</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>461.3999057603342</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38178,10 +38180,10 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>358.2720417115368</v>
       </c>
       <c r="M46" t="n">
-        <v>377.9290095273263</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N46" t="n">
         <v>381.3045564404402</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>148214.4045450225</v>
+        <v>142554.6099685812</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19282386.12654757</v>
+        <v>19282386.12654756</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9802884.450357866</v>
+        <v>9802884.450357862</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5437651.178780567</v>
+        <v>5437651.178780568</v>
       </c>
     </row>
     <row r="11">
@@ -661,19 +661,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>227.325019353762</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>111.5422858787866</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,7 +755,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H3" t="n">
-        <v>52.8423323053137</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>98.0060050679146</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>36.09085704695917</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>131.975558987749</v>
+        <v>360.5712812886317</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>88.66266823451896</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>246.6167235816262</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6367412348449</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>397.7302986442594</v>
       </c>
     </row>
     <row r="9">
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>88.66266823451896</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>102.091588870901</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1381,13 +1381,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>368.4405643932951</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>124.0950237970986</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>88.66266823451896</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>164.540418312084</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1612,19 +1612,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>221.3314028737566</v>
       </c>
       <c r="E14" t="n">
-        <v>331.9797058089127</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>137.3651649456622</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>93.3020705103321</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -2007,13 +2007,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>85.04101540913277</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>170.6830985149694</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>137.0099033214103</v>
       </c>
       <c r="H20" t="n">
-        <v>118.6938953150003</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
@@ -2143,7 +2143,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2241,19 +2241,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>146.0859809509658</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>22.26382903593201</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2307,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2326,19 +2326,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>153.1824608301608</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>197.8764124596324</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2481,16 +2481,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399242</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>123.9086344760393</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
         <v>218.7163152458132</v>
@@ -2614,13 +2614,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
-        <v>173.5514111477256</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>82.38632349887008</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2718,13 +2718,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399242</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>143.1639247279253</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>128.8925684673743</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
-        <v>255.7713603095518</v>
+        <v>252.1242466653715</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399242</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3018,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>58.31517967031904</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3037,16 +3037,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>162.4139576824571</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>34.5479025439635</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>41.90538346881312</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>11.17736360794341</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -3198,16 +3198,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>11.12043047005175</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>99.76095105070239</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>139.2702769432207</v>
       </c>
       <c r="G35" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -3331,10 +3331,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3429,19 +3429,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>3.222079004211921</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>161.673798810038</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>139.2702769432207</v>
       </c>
       <c r="C38" t="n">
-        <v>8.474220880811774</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>400.2956717864458</v>
@@ -3523,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3562,10 +3562,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>96.4442051068646</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3723,13 +3723,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>165.8729356708562</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3748,19 +3748,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>347.6088837131874</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>352.2426925203172</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3900,13 +3900,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>51.69511841098279</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>98.2633455906813</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>350.1160262329627</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3991,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -4042,10 +4042,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>139.2702769432207</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4137,7 +4137,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -4146,10 +4146,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>63.8190088793576</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -4185,22 +4185,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>218.0080577057887</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>266.5332241312934</v>
+        <v>1425.751258749807</v>
       </c>
       <c r="C2" t="n">
-        <v>36.91199246082674</v>
+        <v>998.8505287631069</v>
       </c>
       <c r="D2" t="n">
-        <v>36.91199246082674</v>
+        <v>575.5579079481072</v>
       </c>
       <c r="E2" t="n">
-        <v>36.91199246082674</v>
+        <v>149.5809680959647</v>
       </c>
       <c r="F2" t="n">
-        <v>36.91199246082674</v>
+        <v>149.5809680959647</v>
       </c>
       <c r="G2" t="n">
         <v>36.91199246082674</v>
@@ -4330,25 +4330,25 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K2" t="n">
-        <v>493.6978991635576</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L2" t="n">
-        <v>950.4838058662885</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M2" t="n">
-        <v>1271.257381456703</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N2" t="n">
-        <v>1271.257381456703</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="O2" t="n">
-        <v>1271.257381456703</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P2" t="n">
-        <v>1728.043288159434</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q2" t="n">
         <v>1728.043288159434</v>
@@ -4366,16 +4366,16 @@
         <v>1845.599623041337</v>
       </c>
       <c r="V2" t="n">
-        <v>1488.110208167586</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W2" t="n">
-        <v>1091.718858467933</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X2" t="n">
-        <v>1091.718858467933</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y2" t="n">
-        <v>686.3815884228235</v>
+        <v>1845.599623041337</v>
       </c>
     </row>
     <row r="3">
@@ -4391,46 +4391,46 @@
         <v>486.529580009787</v>
       </c>
       <c r="D3" t="n">
-        <v>382.689621525072</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980092</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809133</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851735</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H3" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I3" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J3" t="n">
-        <v>36.91199246082674</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K3" t="n">
-        <v>475.2419029331441</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="L3" t="n">
-        <v>932.027809635875</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="M3" t="n">
-        <v>932.027809635875</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="N3" t="n">
-        <v>1388.813716338606</v>
+        <v>393.2225928484409</v>
       </c>
       <c r="O3" t="n">
-        <v>1388.813716338606</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P3" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q3" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R3" t="n">
         <v>1845.599623041337</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>809.2672732427914</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="C4" t="n">
-        <v>637.2947101217073</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D4" t="n">
-        <v>473.977937248478</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E4" t="n">
-        <v>307.7697314013316</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F4" t="n">
-        <v>135.907957175892</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G4" t="n">
-        <v>36.91199246082674</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H4" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I4" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J4" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K4" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L4" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M4" t="n">
-        <v>822.0807715636367</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N4" t="n">
-        <v>1199.572282439673</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O4" t="n">
-        <v>1555.000411119436</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="P4" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q4" t="n">
         <v>1845.599623041337</v>
@@ -4515,25 +4515,25 @@
         <v>1798.56100972851</v>
       </c>
       <c r="S4" t="n">
-        <v>1798.56100972851</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T4" t="n">
-        <v>1798.56100972851</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="U4" t="n">
-        <v>1798.56100972851</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="V4" t="n">
-        <v>1516.849542336539</v>
+        <v>1346.714494855674</v>
       </c>
       <c r="W4" t="n">
-        <v>1241.997138509052</v>
+        <v>1346.714494855674</v>
       </c>
       <c r="X4" t="n">
-        <v>999.433241954857</v>
+        <v>1346.714494855674</v>
       </c>
       <c r="Y4" t="n">
-        <v>999.433241954857</v>
+        <v>1310.259083697129</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>887.1053432625264</v>
+        <v>460.2046132758265</v>
       </c>
       <c r="C5" t="n">
         <v>460.2046132758265</v>
@@ -4567,22 +4567,22 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J5" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K5" t="n">
-        <v>36.91199246082674</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L5" t="n">
-        <v>475.942330131692</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M5" t="n">
-        <v>475.942330131692</v>
+        <v>932.7282368344229</v>
       </c>
       <c r="N5" t="n">
-        <v>475.942330131692</v>
+        <v>932.7282368344229</v>
       </c>
       <c r="O5" t="n">
-        <v>932.7282368344229</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="P5" t="n">
         <v>1389.514143537154</v>
@@ -4600,19 +4600,19 @@
         <v>1845.599623041337</v>
       </c>
       <c r="U5" t="n">
-        <v>1845.599623041337</v>
+        <v>1587.244713637749</v>
       </c>
       <c r="V5" t="n">
-        <v>1845.599623041337</v>
+        <v>1229.755298763999</v>
       </c>
       <c r="W5" t="n">
-        <v>1845.599623041337</v>
+        <v>1229.755298763999</v>
       </c>
       <c r="X5" t="n">
-        <v>1712.290977599166</v>
+        <v>865.5418833209362</v>
       </c>
       <c r="Y5" t="n">
-        <v>1306.953707554057</v>
+        <v>460.2046132758265</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C6" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E6" t="n">
-        <v>277.9876877980091</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H6" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273854</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J6" t="n">
-        <v>44.35863542273854</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K6" t="n">
-        <v>44.35863542273854</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="L6" t="n">
-        <v>501.1445421254694</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="M6" t="n">
-        <v>957.9304488282003</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="N6" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="O6" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="P6" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="Q6" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R6" t="n">
         <v>1845.599623041337</v>
@@ -4676,7 +4676,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U6" t="n">
         <v>1437.627243819906</v>
@@ -4685,13 +4685,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>126.4702432027651</v>
+        <v>676.490209378816</v>
       </c>
       <c r="C7" t="n">
-        <v>36.91199246082674</v>
+        <v>676.490209378816</v>
       </c>
       <c r="D7" t="n">
-        <v>36.91199246082674</v>
+        <v>513.1734365055867</v>
       </c>
       <c r="E7" t="n">
-        <v>36.91199246082674</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="F7" t="n">
-        <v>36.91199246082674</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G7" t="n">
-        <v>36.91199246082674</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H7" t="n">
         <v>36.91199246082674</v>
@@ -4731,19 +4731,19 @@
         <v>320.9309218908219</v>
       </c>
       <c r="L7" t="n">
-        <v>320.9309218908219</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M7" t="n">
-        <v>695.080641322875</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N7" t="n">
-        <v>1072.572152198911</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O7" t="n">
-        <v>1428.000280878674</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P7" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q7" t="n">
         <v>1845.599623041337</v>
@@ -4761,16 +4761,16 @@
         <v>1151.940779286676</v>
       </c>
       <c r="V7" t="n">
-        <v>870.229311894705</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="W7" t="n">
-        <v>595.376908067218</v>
+        <v>902.8329776890739</v>
       </c>
       <c r="X7" t="n">
-        <v>352.8130115130231</v>
+        <v>902.8329776890739</v>
       </c>
       <c r="Y7" t="n">
-        <v>126.4702432027651</v>
+        <v>676.490209378816</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>212.3026401727913</v>
+        <v>463.8127224475267</v>
       </c>
       <c r="C8" t="n">
-        <v>212.3026401727913</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D8" t="n">
-        <v>212.3026401727913</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E8" t="n">
-        <v>212.3026401727913</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F8" t="n">
-        <v>212.3026401727913</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G8" t="n">
-        <v>212.3026401727913</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H8" t="n">
         <v>36.91199246082674</v>
@@ -4804,52 +4804,52 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J8" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K8" t="n">
-        <v>36.91199246082674</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="L8" t="n">
-        <v>475.942330131692</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="M8" t="n">
-        <v>932.7282368344229</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="N8" t="n">
-        <v>1389.514143537154</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="O8" t="n">
-        <v>1389.514143537154</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P8" t="n">
-        <v>1389.514143537154</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q8" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R8" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U8" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="V8" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="W8" t="n">
-        <v>1449.208273341684</v>
+        <v>865.5604988558696</v>
       </c>
       <c r="X8" t="n">
-        <v>1037.488274509431</v>
+        <v>865.5604988558696</v>
       </c>
       <c r="Y8" t="n">
-        <v>632.1510044643213</v>
+        <v>463.8127224475267</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>36.91199246082674</v>
       </c>
       <c r="I9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J9" t="n">
-        <v>36.91199246082674</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K9" t="n">
-        <v>36.91199246082674</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L9" t="n">
-        <v>393.2225928484407</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="M9" t="n">
+        <v>772.8420314050605</v>
+      </c>
+      <c r="N9" t="n">
+        <v>772.8420314050605</v>
+      </c>
+      <c r="O9" t="n">
         <v>850.0084995511716</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>1306.794406253902</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1763.580312956633</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1763.580312956633</v>
       </c>
       <c r="Q9" t="n">
         <v>1763.580312956633</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>36.91199246082674</v>
+        <v>627.6654153405101</v>
       </c>
       <c r="C10" t="n">
-        <v>36.91199246082674</v>
+        <v>455.6928522194261</v>
       </c>
       <c r="D10" t="n">
-        <v>36.91199246082674</v>
+        <v>352.5700351781119</v>
       </c>
       <c r="E10" t="n">
-        <v>36.91199246082674</v>
+        <v>352.5700351781119</v>
       </c>
       <c r="F10" t="n">
-        <v>36.91199246082674</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="G10" t="n">
-        <v>36.91199246082674</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H10" t="n">
         <v>36.91199246082674</v>
@@ -4962,25 +4962,25 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K10" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L10" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M10" t="n">
-        <v>822.0807715636367</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N10" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O10" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P10" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q10" t="n">
         <v>1845.599623041337</v>
@@ -5001,13 +5001,13 @@
         <v>870.229311894705</v>
       </c>
       <c r="W10" t="n">
-        <v>595.376908067218</v>
+        <v>870.229311894705</v>
       </c>
       <c r="X10" t="n">
-        <v>352.8130115130231</v>
+        <v>627.6654153405101</v>
       </c>
       <c r="Y10" t="n">
-        <v>126.4702432027651</v>
+        <v>627.6654153405101</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1261.951848555523</v>
+        <v>1440.262352996227</v>
       </c>
       <c r="C11" t="n">
-        <v>835.0511185688229</v>
+        <v>1013.361623009527</v>
       </c>
       <c r="D11" t="n">
-        <v>835.0511185688229</v>
+        <v>1013.361623009527</v>
       </c>
       <c r="E11" t="n">
-        <v>409.0741787166804</v>
+        <v>587.3846831573848</v>
       </c>
       <c r="F11" t="n">
-        <v>36.91199246082674</v>
+        <v>162.260501346785</v>
       </c>
       <c r="G11" t="n">
-        <v>36.91199246082674</v>
+        <v>162.260501346785</v>
       </c>
       <c r="H11" t="n">
         <v>36.91199246082674</v>
@@ -5044,22 +5044,22 @@
         <v>399.5154512777223</v>
       </c>
       <c r="K11" t="n">
-        <v>814.4714747539724</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L11" t="n">
-        <v>1271.257381456703</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M11" t="n">
-        <v>1271.257381456703</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N11" t="n">
-        <v>1271.257381456703</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="O11" t="n">
-        <v>1728.043288159434</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P11" t="n">
-        <v>1728.043288159434</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q11" t="n">
         <v>1728.043288159434</v>
@@ -5068,25 +5068,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S11" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T11" t="n">
-        <v>1520.30675795911</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U11" t="n">
-        <v>1261.951848555523</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V11" t="n">
-        <v>1261.951848555523</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W11" t="n">
-        <v>1261.951848555523</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X11" t="n">
-        <v>1261.951848555523</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y11" t="n">
-        <v>1261.951848555523</v>
+        <v>1440.262352996227</v>
       </c>
     </row>
     <row r="12">
@@ -5123,13 +5123,13 @@
         <v>36.91199246082674</v>
       </c>
       <c r="K12" t="n">
-        <v>493.6978991635576</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="L12" t="n">
-        <v>493.6978991635576</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="M12" t="n">
-        <v>493.6978991635576</v>
+        <v>475.2419029331439</v>
       </c>
       <c r="N12" t="n">
         <v>932.0278096358747</v>
@@ -5138,7 +5138,7 @@
         <v>1388.813716338606</v>
       </c>
       <c r="P12" t="n">
-        <v>1845.599623041337</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q12" t="n">
         <v>1845.599623041337</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1020.32454672534</v>
+        <v>126.4702432027651</v>
       </c>
       <c r="C13" t="n">
-        <v>848.3519836042556</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D13" t="n">
-        <v>685.0352107310263</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E13" t="n">
-        <v>518.8270048838798</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F13" t="n">
-        <v>346.9652306584402</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G13" t="n">
-        <v>180.7082609526723</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H13" t="n">
         <v>36.91199246082674</v>
@@ -5199,25 +5199,25 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J13" t="n">
-        <v>36.91199246082674</v>
+        <v>78.10605253212941</v>
       </c>
       <c r="K13" t="n">
-        <v>263.4395936666639</v>
+        <v>304.6336537379666</v>
       </c>
       <c r="L13" t="n">
-        <v>618.1289149610848</v>
+        <v>659.3229750323874</v>
       </c>
       <c r="M13" t="n">
-        <v>1009.314709931336</v>
+        <v>1050.508770002638</v>
       </c>
       <c r="N13" t="n">
-        <v>1386.806220807371</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="O13" t="n">
-        <v>1742.234349487134</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P13" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q13" t="n">
         <v>1845.599623041337</v>
@@ -5226,25 +5226,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S13" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T13" t="n">
-        <v>1845.599623041337</v>
+        <v>1432.125227786372</v>
       </c>
       <c r="U13" t="n">
-        <v>1845.599623041337</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="V13" t="n">
-        <v>1845.599623041337</v>
+        <v>870.229311894705</v>
       </c>
       <c r="W13" t="n">
-        <v>1679.397180301858</v>
+        <v>595.376908067218</v>
       </c>
       <c r="X13" t="n">
-        <v>1436.833283747663</v>
+        <v>352.8130115130231</v>
       </c>
       <c r="Y13" t="n">
-        <v>1210.490515437405</v>
+        <v>126.4702432027651</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1520.30675795911</v>
+        <v>1091.718858467933</v>
       </c>
       <c r="C14" t="n">
-        <v>1093.406027972411</v>
+        <v>664.8181284812333</v>
       </c>
       <c r="D14" t="n">
-        <v>670.1134071574108</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="E14" t="n">
-        <v>334.7803709867919</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="F14" t="n">
-        <v>334.7803709867919</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="G14" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H14" t="n">
         <v>36.91199246082674</v>
@@ -5278,52 +5278,52 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J14" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K14" t="n">
-        <v>36.91199246082674</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="L14" t="n">
-        <v>493.6978991635576</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="M14" t="n">
-        <v>950.4838058662885</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="N14" t="n">
-        <v>1407.269712569019</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="O14" t="n">
-        <v>1845.599623041337</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P14" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q14" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R14" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S14" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T14" t="n">
-        <v>1520.30675795911</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U14" t="n">
-        <v>1520.30675795911</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V14" t="n">
-        <v>1520.30675795911</v>
+        <v>1488.110208167586</v>
       </c>
       <c r="W14" t="n">
-        <v>1520.30675795911</v>
+        <v>1091.718858467933</v>
       </c>
       <c r="X14" t="n">
-        <v>1520.30675795911</v>
+        <v>1091.718858467933</v>
       </c>
       <c r="Y14" t="n">
-        <v>1520.30675795911</v>
+        <v>1091.718858467933</v>
       </c>
     </row>
     <row r="15">
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C15" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D15" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E15" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F15" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G15" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H15" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I15" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J15" t="n">
-        <v>36.91199246082674</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K15" t="n">
-        <v>475.2419029331439</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="L15" t="n">
-        <v>932.0278096358747</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="M15" t="n">
-        <v>1388.813716338606</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N15" t="n">
-        <v>1845.599623041337</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="O15" t="n">
-        <v>1845.599623041337</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="P15" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q15" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R15" t="n">
         <v>1845.599623041337</v>
@@ -5387,7 +5387,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T15" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U15" t="n">
         <v>1437.627243819906</v>
@@ -5396,13 +5396,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W15" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X15" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y15" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="16">
@@ -5436,25 +5436,25 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J16" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K16" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L16" t="n">
-        <v>430.8949765933859</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="M16" t="n">
-        <v>822.0807715636367</v>
+        <v>712.1167168610727</v>
       </c>
       <c r="N16" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O16" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P16" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q16" t="n">
         <v>1845.599623041337</v>
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>739.1194333973433</v>
+        <v>1028.542354163974</v>
       </c>
       <c r="C17" t="n">
-        <v>739.1194333973433</v>
+        <v>601.6416241772745</v>
       </c>
       <c r="D17" t="n">
-        <v>739.1194333973433</v>
+        <v>462.8889323129692</v>
       </c>
       <c r="E17" t="n">
-        <v>739.1194333973433</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F17" t="n">
-        <v>739.1194333973433</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G17" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H17" t="n">
         <v>36.91199246082674</v>
@@ -5515,25 +5515,25 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J17" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K17" t="n">
-        <v>493.6978991635576</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="L17" t="n">
-        <v>950.4838058662885</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="M17" t="n">
-        <v>1271.257381456703</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="N17" t="n">
-        <v>1271.257381456703</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="O17" t="n">
-        <v>1728.043288159434</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P17" t="n">
-        <v>1728.043288159434</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q17" t="n">
         <v>1728.043288159434</v>
@@ -5545,22 +5545,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T17" t="n">
-        <v>1751.355107374335</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U17" t="n">
-        <v>1493.000197970747</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V17" t="n">
-        <v>1135.510783096996</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W17" t="n">
-        <v>739.1194333973433</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X17" t="n">
-        <v>739.1194333973433</v>
+        <v>1433.879624209084</v>
       </c>
       <c r="Y17" t="n">
-        <v>739.1194333973433</v>
+        <v>1028.542354163974</v>
       </c>
     </row>
     <row r="18">
@@ -5570,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C18" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D18" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E18" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F18" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G18" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H18" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I18" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J18" t="n">
-        <v>36.91199246082674</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K18" t="n">
-        <v>36.91199246082674</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L18" t="n">
-        <v>493.6978991635576</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M18" t="n">
-        <v>493.6978991635576</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="N18" t="n">
-        <v>950.4838058662885</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="O18" t="n">
-        <v>1388.813716338606</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="P18" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q18" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R18" t="n">
         <v>1845.599623041337</v>
@@ -5624,7 +5624,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T18" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U18" t="n">
         <v>1437.627243819906</v>
@@ -5633,13 +5633,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W18" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X18" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y18" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="19">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>629.9631182453602</v>
+        <v>208.8845555819107</v>
       </c>
       <c r="C19" t="n">
-        <v>457.9905551242762</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D19" t="n">
-        <v>294.6737822510469</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7737666862663</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F19" t="n">
         <v>36.91199246082674</v>
@@ -5673,22 +5673,22 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J19" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K19" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L19" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M19" t="n">
-        <v>822.0807715636367</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N19" t="n">
-        <v>1199.572282439673</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O19" t="n">
-        <v>1555.000411119436</v>
+        <v>1799.725677711293</v>
       </c>
       <c r="P19" t="n">
         <v>1845.599623041337</v>
@@ -5703,22 +5703,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T19" t="n">
-        <v>1845.599623041337</v>
+        <v>1602.260275267237</v>
       </c>
       <c r="U19" t="n">
-        <v>1845.599623041337</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V19" t="n">
-        <v>1563.888155649366</v>
+        <v>1040.36435937557</v>
       </c>
       <c r="W19" t="n">
-        <v>1289.035751821879</v>
+        <v>867.9571891584293</v>
       </c>
       <c r="X19" t="n">
-        <v>1046.471855267684</v>
+        <v>625.3932926042344</v>
       </c>
       <c r="Y19" t="n">
-        <v>820.1290869574259</v>
+        <v>399.0505242939764</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1008.829727808632</v>
+        <v>508.071083982119</v>
       </c>
       <c r="C20" t="n">
-        <v>581.9289978219319</v>
+        <v>508.071083982119</v>
       </c>
       <c r="D20" t="n">
-        <v>581.9289978219319</v>
+        <v>508.071083982119</v>
       </c>
       <c r="E20" t="n">
-        <v>581.9289978219319</v>
+        <v>508.071083982119</v>
       </c>
       <c r="F20" t="n">
-        <v>156.8048160113322</v>
+        <v>508.071083982119</v>
       </c>
       <c r="G20" t="n">
-        <v>156.8048160113322</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="H20" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I20" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J20" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K20" t="n">
-        <v>493.6978991635576</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L20" t="n">
-        <v>950.4838058662885</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M20" t="n">
-        <v>950.4838058662885</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N20" t="n">
-        <v>1407.269712569019</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="O20" t="n">
-        <v>1845.599623041337</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P20" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q20" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R20" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S20" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T20" t="n">
-        <v>1624.67405208597</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U20" t="n">
-        <v>1366.319142682382</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="V20" t="n">
-        <v>1008.829727808632</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="W20" t="n">
-        <v>1008.829727808632</v>
+        <v>508.071083982119</v>
       </c>
       <c r="X20" t="n">
-        <v>1008.829727808632</v>
+        <v>508.071083982119</v>
       </c>
       <c r="Y20" t="n">
-        <v>1008.829727808632</v>
+        <v>508.071083982119</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>36.91199246082674</v>
       </c>
       <c r="I21" t="n">
-        <v>44.35863542273858</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J21" t="n">
-        <v>44.35863542273858</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K21" t="n">
-        <v>44.35863542273858</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="L21" t="n">
-        <v>44.35863542273858</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="M21" t="n">
-        <v>501.1445421254695</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="N21" t="n">
-        <v>957.9304488282003</v>
+        <v>475.2419029331439</v>
       </c>
       <c r="O21" t="n">
-        <v>1414.716355530931</v>
+        <v>932.0278096358747</v>
       </c>
       <c r="P21" t="n">
-        <v>1845.599623041337</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q21" t="n">
         <v>1845.599623041337</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>857.8329054478936</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="C22" t="n">
-        <v>685.8603423268096</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D22" t="n">
-        <v>522.5435694535803</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E22" t="n">
-        <v>356.3353636064338</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F22" t="n">
-        <v>184.4735893809942</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G22" t="n">
         <v>36.91199246082674</v>
@@ -5910,52 +5910,52 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J22" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K22" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L22" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M22" t="n">
-        <v>822.0807715636367</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N22" t="n">
-        <v>1199.572282439673</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O22" t="n">
-        <v>1555.000411119436</v>
+        <v>1799.725677711293</v>
       </c>
       <c r="P22" t="n">
-        <v>1845.599623041337</v>
+        <v>1799.725677711293</v>
       </c>
       <c r="Q22" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R22" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S22" t="n">
-        <v>1845.599623041337</v>
+        <v>1776.072293530599</v>
       </c>
       <c r="T22" t="n">
-        <v>1845.599623041337</v>
+        <v>1532.732945756499</v>
       </c>
       <c r="U22" t="n">
-        <v>1565.415174541641</v>
+        <v>1252.548497256803</v>
       </c>
       <c r="V22" t="n">
-        <v>1565.415174541641</v>
+        <v>970.8370298648322</v>
       </c>
       <c r="W22" t="n">
-        <v>1290.562770714154</v>
+        <v>695.9846260373453</v>
       </c>
       <c r="X22" t="n">
-        <v>1047.998874159959</v>
+        <v>453.4207294831504</v>
       </c>
       <c r="Y22" t="n">
-        <v>1047.998874159959</v>
+        <v>227.0779611728924</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>79.39509630577632</v>
+        <v>1193.467725237955</v>
       </c>
       <c r="C23" t="n">
-        <v>79.39509630577632</v>
+        <v>1193.467725237955</v>
       </c>
       <c r="D23" t="n">
-        <v>79.39509630577632</v>
+        <v>1193.467725237955</v>
       </c>
       <c r="E23" t="n">
-        <v>79.39509630577632</v>
+        <v>767.4907853858125</v>
       </c>
       <c r="F23" t="n">
-        <v>79.39509630577632</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="G23" t="n">
-        <v>79.39509630577632</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H23" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I23" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J23" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K23" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L23" t="n">
-        <v>44.49822504924753</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M23" t="n">
-        <v>44.49822504924753</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N23" t="n">
-        <v>549.9383681074144</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O23" t="n">
         <v>1100.603903091853</v>
@@ -6022,19 +6022,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U23" t="n">
-        <v>2070.181494048073</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V23" t="n">
-        <v>1712.692079174322</v>
+        <v>2025.036088361738</v>
       </c>
       <c r="W23" t="n">
-        <v>1316.300729474669</v>
+        <v>2025.036088361738</v>
       </c>
       <c r="X23" t="n">
-        <v>904.580730642416</v>
+        <v>1613.316089529485</v>
       </c>
       <c r="Y23" t="n">
-        <v>499.2434605973064</v>
+        <v>1613.316089529485</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C24" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D24" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E24" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F24" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G24" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H24" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I24" t="n">
-        <v>416.2236218818665</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J24" t="n">
-        <v>416.2236218818665</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K24" t="n">
-        <v>416.2236218818665</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L24" t="n">
-        <v>416.2236218818665</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M24" t="n">
-        <v>966.8891568663047</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N24" t="n">
-        <v>1517.554691850743</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O24" t="n">
-        <v>2068.220226835181</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P24" t="n">
-        <v>2224.911252462377</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q24" t="n">
-        <v>2224.911252462377</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R24" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S24" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T24" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U24" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V24" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W24" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X24" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y24" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>884.1145108219148</v>
+        <v>315.615903911738</v>
       </c>
       <c r="C25" t="n">
-        <v>712.1419477008308</v>
+        <v>143.643340790654</v>
       </c>
       <c r="D25" t="n">
-        <v>548.8251748276015</v>
+        <v>143.643340790654</v>
       </c>
       <c r="E25" t="n">
-        <v>382.616968980455</v>
+        <v>143.643340790654</v>
       </c>
       <c r="F25" t="n">
-        <v>210.7551947550154</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G25" t="n">
         <v>44.49822504924753</v>
@@ -6174,25 +6174,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S25" t="n">
-        <v>2224.911252462376</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T25" t="n">
-        <v>2224.911252462376</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U25" t="n">
-        <v>2099.751015617891</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V25" t="n">
-        <v>1818.03954822592</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W25" t="n">
-        <v>1543.187144398433</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X25" t="n">
-        <v>1300.623247844238</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="Y25" t="n">
-        <v>1074.28047953398</v>
+        <v>505.7818726238037</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>342.3666035752127</v>
+        <v>804.1642048184415</v>
       </c>
       <c r="C26" t="n">
-        <v>342.3666035752127</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="D26" t="n">
-        <v>342.3666035752127</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="E26" t="n">
-        <v>342.3666035752127</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="F26" t="n">
-        <v>342.3666035752127</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G26" t="n">
-        <v>342.3666035752127</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H26" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I26" t="n">
         <v>44.49822504924753</v>
@@ -6229,16 +6229,16 @@
         <v>407.101683866143</v>
       </c>
       <c r="K26" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L26" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M26" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N26" t="n">
-        <v>549.9383681074144</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O26" t="n">
         <v>1100.603903091853</v>
@@ -6253,25 +6253,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S26" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T26" t="n">
-        <v>2003.98568150701</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U26" t="n">
-        <v>1745.630772103422</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V26" t="n">
-        <v>1570.326316398649</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W26" t="n">
-        <v>1173.934966698996</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X26" t="n">
-        <v>762.2149678667428</v>
+        <v>804.1642048184415</v>
       </c>
       <c r="Y26" t="n">
-        <v>762.2149678667428</v>
+        <v>804.1642048184415</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I27" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J27" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K27" t="n">
-        <v>756.3555336978366</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L27" t="n">
-        <v>756.3555336978366</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M27" t="n">
-        <v>756.3555336978366</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N27" t="n">
-        <v>756.3555336978366</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O27" t="n">
-        <v>756.3555336978366</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P27" t="n">
-        <v>1307.021068682275</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q27" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R27" t="n">
         <v>1853.185855629757</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>817.6261093758709</v>
+        <v>315.615903911738</v>
       </c>
       <c r="C28" t="n">
-        <v>645.6535462547869</v>
+        <v>143.643340790654</v>
       </c>
       <c r="D28" t="n">
-        <v>482.3367733815576</v>
+        <v>143.643340790654</v>
       </c>
       <c r="E28" t="n">
-        <v>316.1285675344111</v>
+        <v>143.643340790654</v>
       </c>
       <c r="F28" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G28" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H28" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I28" t="n">
         <v>44.49822504924753</v>
@@ -6405,31 +6405,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q28" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R28" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S28" t="n">
-        <v>2177.87263914955</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T28" t="n">
-        <v>2177.87263914955</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U28" t="n">
-        <v>2033.262614171847</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V28" t="n">
-        <v>1751.551146779876</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.698742952389</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X28" t="n">
-        <v>1234.134846398194</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="Y28" t="n">
-        <v>1007.792078087936</v>
+        <v>505.7818726238037</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>174.692738652656</v>
+        <v>875.7380174464988</v>
       </c>
       <c r="C29" t="n">
-        <v>44.49822504924753</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="D29" t="n">
-        <v>44.49822504924753</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="E29" t="n">
-        <v>44.49822504924753</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="F29" t="n">
-        <v>44.49822504924753</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G29" t="n">
         <v>44.49822504924753</v>
@@ -6463,22 +6463,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J29" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K29" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L29" t="n">
-        <v>595.1637600336857</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M29" t="n">
-        <v>1145.829295018124</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N29" t="n">
-        <v>1696.494830002562</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="O29" t="n">
-        <v>2224.911252462377</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P29" t="n">
         <v>2224.911252462377</v>
@@ -6490,25 +6490,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S29" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T29" t="n">
-        <v>2003.98568150701</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U29" t="n">
-        <v>1745.630772103422</v>
+        <v>1644.947431152502</v>
       </c>
       <c r="V29" t="n">
-        <v>1388.141357229671</v>
+        <v>1287.458016278752</v>
       </c>
       <c r="W29" t="n">
-        <v>991.7500075300184</v>
+        <v>1287.458016278752</v>
       </c>
       <c r="X29" t="n">
-        <v>580.0300086977657</v>
+        <v>875.7380174464988</v>
       </c>
       <c r="Y29" t="n">
-        <v>174.692738652656</v>
+        <v>875.7380174464988</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I30" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J30" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K30" t="n">
-        <v>874.3078922751886</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L30" t="n">
-        <v>874.3078922751886</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M30" t="n">
-        <v>874.3078922751886</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N30" t="n">
-        <v>874.3078922751886</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O30" t="n">
-        <v>874.3078922751886</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P30" t="n">
-        <v>1307.021068682275</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q30" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R30" t="n">
         <v>1853.185855629757</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>626.1818057320246</v>
+        <v>315.615903911738</v>
       </c>
       <c r="C31" t="n">
-        <v>626.1818057320246</v>
+        <v>143.643340790654</v>
       </c>
       <c r="D31" t="n">
-        <v>626.1818057320246</v>
+        <v>143.643340790654</v>
       </c>
       <c r="E31" t="n">
-        <v>626.1818057320246</v>
+        <v>143.643340790654</v>
       </c>
       <c r="F31" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G31" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H31" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I31" t="n">
         <v>44.49822504924753</v>
@@ -6642,31 +6642,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q31" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R31" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S31" t="n">
-        <v>2007.737591668685</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T31" t="n">
-        <v>1764.398243894585</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U31" t="n">
-        <v>1484.213795394889</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V31" t="n">
-        <v>1202.502328002918</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W31" t="n">
-        <v>927.6499241754307</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X31" t="n">
-        <v>685.0860276212358</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="Y31" t="n">
-        <v>626.1818057320246</v>
+        <v>505.7818726238037</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1393.342889338594</v>
+        <v>1357.396947955218</v>
       </c>
       <c r="C32" t="n">
-        <v>966.4421593518939</v>
+        <v>930.4962179685185</v>
       </c>
       <c r="D32" t="n">
-        <v>966.4421593518939</v>
+        <v>930.4962179685185</v>
       </c>
       <c r="E32" t="n">
-        <v>966.4421593518939</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="F32" t="n">
-        <v>541.3179775412941</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G32" t="n">
-        <v>377.2634748317415</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H32" t="n">
         <v>79.39509630577632</v>
@@ -6700,52 +6700,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J32" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K32" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L32" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M32" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N32" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O32" t="n">
-        <v>1696.494830002562</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P32" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q32" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R32" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S32" t="n">
-        <v>2224.911252462377</v>
+        <v>2182.582582291858</v>
       </c>
       <c r="T32" t="n">
-        <v>2224.911252462377</v>
+        <v>2182.582582291858</v>
       </c>
       <c r="U32" t="n">
-        <v>2224.911252462377</v>
+        <v>2182.582582291858</v>
       </c>
       <c r="V32" t="n">
-        <v>2224.911252462377</v>
+        <v>2182.582582291858</v>
       </c>
       <c r="W32" t="n">
-        <v>2224.911252462377</v>
+        <v>2182.582582291858</v>
       </c>
       <c r="X32" t="n">
-        <v>1813.191253630124</v>
+        <v>2182.582582291858</v>
       </c>
       <c r="Y32" t="n">
-        <v>1813.191253630124</v>
+        <v>1777.245312246748</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I33" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J33" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K33" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L33" t="n">
-        <v>316.1957143288386</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M33" t="n">
-        <v>316.1957143288386</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N33" t="n">
-        <v>316.1957143288386</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O33" t="n">
-        <v>838.3748437825398</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P33" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q33" t="n">
         <v>1853.185855629757</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>729.0902991667042</v>
+        <v>628.8783067918429</v>
       </c>
       <c r="C34" t="n">
-        <v>557.1177360456202</v>
+        <v>617.588040521193</v>
       </c>
       <c r="D34" t="n">
-        <v>393.8009631723909</v>
+        <v>454.2712676479637</v>
       </c>
       <c r="E34" t="n">
-        <v>227.5927573252444</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="F34" t="n">
-        <v>55.73098309980486</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G34" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H34" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I34" t="n">
         <v>44.49822504924753</v>
@@ -6867,43 +6867,43 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M34" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N34" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O34" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P34" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q34" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R34" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S34" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T34" t="n">
-        <v>2224.911252462377</v>
+        <v>1934.53329137545</v>
       </c>
       <c r="U34" t="n">
-        <v>1944.726803962681</v>
+        <v>1654.348842875754</v>
       </c>
       <c r="V34" t="n">
-        <v>1663.01533657071</v>
+        <v>1372.637375483783</v>
       </c>
       <c r="W34" t="n">
-        <v>1388.162932743223</v>
+        <v>1097.784971656296</v>
       </c>
       <c r="X34" t="n">
-        <v>1145.599036189028</v>
+        <v>855.2210751021008</v>
       </c>
       <c r="Y34" t="n">
-        <v>919.2562678787699</v>
+        <v>628.8783067918429</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>549.6059248847508</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="C35" t="n">
-        <v>448.8372874597989</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="D35" t="n">
-        <v>448.8372874597989</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="E35" t="n">
-        <v>448.8372874597989</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="F35" t="n">
-        <v>448.8372874597989</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G35" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H35" t="n">
         <v>44.49822504924753</v>
@@ -6943,22 +6943,22 @@
         <v>957.7672188505812</v>
       </c>
       <c r="L35" t="n">
-        <v>1508.432753835019</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M35" t="n">
-        <v>2059.098288819458</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N35" t="n">
-        <v>2224.911252462377</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O35" t="n">
-        <v>2224.911252462377</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P35" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q35" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R35" t="n">
         <v>2224.911252462377</v>
@@ -6967,22 +6967,22 @@
         <v>2120.543958335517</v>
       </c>
       <c r="T35" t="n">
-        <v>2120.543958335517</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U35" t="n">
-        <v>2120.543958335517</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V35" t="n">
-        <v>1763.054543461766</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W35" t="n">
-        <v>1366.663193762113</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X35" t="n">
-        <v>954.9431949298605</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="Y35" t="n">
-        <v>549.6059248847508</v>
+        <v>887.3827134031587</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I36" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J36" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K36" t="n">
-        <v>874.3078922751886</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L36" t="n">
-        <v>874.3078922751886</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M36" t="n">
-        <v>874.3078922751886</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N36" t="n">
-        <v>874.3078922751886</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O36" t="n">
-        <v>874.3078922751886</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P36" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q36" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R36" t="n">
         <v>1853.185855629757</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1127.679347573484</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C37" t="n">
-        <v>955.7067844524004</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="D37" t="n">
-        <v>792.3900115791711</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="E37" t="n">
-        <v>626.1818057320246</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="F37" t="n">
-        <v>454.3200315065851</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G37" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H37" t="n">
         <v>144.2667933089716</v>
@@ -7095,52 +7095,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J37" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K37" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L37" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M37" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N37" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O37" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P37" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q37" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R37" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S37" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T37" t="n">
-        <v>2224.911252462377</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U37" t="n">
-        <v>2224.911252462377</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V37" t="n">
-        <v>2061.60438497749</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W37" t="n">
-        <v>1786.751981150003</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X37" t="n">
-        <v>1544.188084595808</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y37" t="n">
-        <v>1317.84531628555</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1641.263477976562</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="C38" t="n">
-        <v>1632.703658905035</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="D38" t="n">
-        <v>1632.703658905035</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="E38" t="n">
-        <v>1206.726719052893</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="F38" t="n">
-        <v>781.6025372422929</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G38" t="n">
-        <v>377.2634748317415</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H38" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I38" t="n">
         <v>44.49822504924753</v>
@@ -7180,22 +7180,22 @@
         <v>957.7672188505812</v>
       </c>
       <c r="L38" t="n">
-        <v>1508.432753835019</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M38" t="n">
-        <v>1768.825772958194</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N38" t="n">
-        <v>1768.825772958194</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O38" t="n">
-        <v>1768.825772958194</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P38" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q38" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R38" t="n">
         <v>2224.911252462377</v>
@@ -7210,16 +7210,16 @@
         <v>1641.263477976562</v>
       </c>
       <c r="V38" t="n">
-        <v>1641.263477976562</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W38" t="n">
-        <v>1641.263477976562</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X38" t="n">
-        <v>1641.263477976562</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="Y38" t="n">
-        <v>1641.263477976562</v>
+        <v>887.3827134031587</v>
       </c>
     </row>
     <row r="39">
@@ -7256,19 +7256,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K39" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L39" t="n">
-        <v>1145.829295018124</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M39" t="n">
-        <v>1389.040378766978</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N39" t="n">
-        <v>1389.040378766978</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="O39" t="n">
-        <v>1389.040378766978</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P39" t="n">
         <v>1389.040378766978</v>
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>792.3900115791711</v>
+        <v>485.750951392604</v>
       </c>
       <c r="C40" t="n">
-        <v>792.3900115791711</v>
+        <v>313.77838827152</v>
       </c>
       <c r="D40" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E40" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F40" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G40" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H40" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I40" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J40" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K40" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L40" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M40" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N40" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O40" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P40" t="n">
         <v>2097.911122221615</v>
@@ -7356,28 +7356,28 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R40" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S40" t="n">
-        <v>2007.737591668685</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T40" t="n">
-        <v>1764.398243894585</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U40" t="n">
-        <v>1484.213795394889</v>
+        <v>1701.387456188581</v>
       </c>
       <c r="V40" t="n">
-        <v>1202.502328002918</v>
+        <v>1419.67598879661</v>
       </c>
       <c r="W40" t="n">
-        <v>1034.953908133366</v>
+        <v>1144.823584969123</v>
       </c>
       <c r="X40" t="n">
-        <v>792.3900115791711</v>
+        <v>902.2596884149276</v>
       </c>
       <c r="Y40" t="n">
-        <v>792.3900115791711</v>
+        <v>675.9169201046697</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>483.7341587163277</v>
+        <v>395.6183096080227</v>
       </c>
       <c r="C41" t="n">
-        <v>483.7341587163277</v>
+        <v>395.6183096080227</v>
       </c>
       <c r="D41" t="n">
-        <v>483.7341587163277</v>
+        <v>395.6183096080227</v>
       </c>
       <c r="E41" t="n">
-        <v>483.7341587163277</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F41" t="n">
-        <v>483.7341587163277</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G41" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H41" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I41" t="n">
         <v>44.49822504924753</v>
@@ -7414,16 +7414,16 @@
         <v>407.101683866143</v>
       </c>
       <c r="K41" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L41" t="n">
-        <v>407.101683866143</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M41" t="n">
-        <v>407.101683866143</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N41" t="n">
-        <v>549.9383681074144</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O41" t="n">
         <v>1100.603903091853</v>
@@ -7438,25 +7438,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S41" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T41" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U41" t="n">
-        <v>1641.263477976562</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V41" t="n">
-        <v>1641.263477976562</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W41" t="n">
-        <v>1244.872128276909</v>
+        <v>1212.675578485385</v>
       </c>
       <c r="X41" t="n">
-        <v>889.0714287614373</v>
+        <v>800.9555796531324</v>
       </c>
       <c r="Y41" t="n">
-        <v>483.7341587163277</v>
+        <v>395.6183096080227</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I42" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J42" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K42" t="n">
-        <v>602.6104029955975</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L42" t="n">
-        <v>602.6104029955975</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="M42" t="n">
-        <v>602.6104029955975</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="N42" t="n">
-        <v>838.3748437825398</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O42" t="n">
-        <v>1389.040378766978</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P42" t="n">
-        <v>1389.040378766978</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q42" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R42" t="n">
         <v>1853.185855629757</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>268.5772905989122</v>
+        <v>315.6159039117389</v>
       </c>
       <c r="C43" t="n">
-        <v>216.3599992746871</v>
+        <v>315.6159039117389</v>
       </c>
       <c r="D43" t="n">
-        <v>216.3599992746871</v>
+        <v>315.6159039117389</v>
       </c>
       <c r="E43" t="n">
         <v>216.3599992746871</v>
@@ -7572,49 +7572,49 @@
         <v>101.9895532734055</v>
       </c>
       <c r="K43" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L43" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M43" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N43" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O43" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P43" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q43" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="R43" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S43" t="n">
-        <v>2007.737591668685</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T43" t="n">
-        <v>1764.398243894585</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U43" t="n">
-        <v>1484.213795394889</v>
+        <v>1531.252408707716</v>
       </c>
       <c r="V43" t="n">
-        <v>1202.502328002918</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W43" t="n">
-        <v>927.6499241754307</v>
+        <v>974.6885374882575</v>
       </c>
       <c r="X43" t="n">
-        <v>685.0860276212358</v>
+        <v>732.1246409340625</v>
       </c>
       <c r="Y43" t="n">
-        <v>458.7432593109778</v>
+        <v>505.7818726238046</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>746.7056659857641</v>
+        <v>433.0476480562437</v>
       </c>
       <c r="C44" t="n">
-        <v>746.7056659857641</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="D44" t="n">
-        <v>746.7056659857641</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="E44" t="n">
-        <v>746.7056659857641</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="F44" t="n">
-        <v>746.7056659857641</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G44" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H44" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I44" t="n">
         <v>44.49822504924753</v>
@@ -7654,13 +7654,13 @@
         <v>957.7672188505812</v>
       </c>
       <c r="L44" t="n">
+        <v>957.7672188505812</v>
+      </c>
+      <c r="M44" t="n">
+        <v>957.7672188505812</v>
+      </c>
+      <c r="N44" t="n">
         <v>1100.603903091853</v>
-      </c>
-      <c r="M44" t="n">
-        <v>1100.603903091853</v>
-      </c>
-      <c r="N44" t="n">
-        <v>1651.269438076291</v>
       </c>
       <c r="O44" t="n">
         <v>1651.269438076291</v>
@@ -7675,25 +7675,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S44" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T44" t="n">
-        <v>1899.61838738015</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U44" t="n">
-        <v>1641.263477976562</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V44" t="n">
-        <v>1283.774063102812</v>
+        <v>1646.496266633259</v>
       </c>
       <c r="W44" t="n">
-        <v>887.3827134031587</v>
+        <v>1250.104916933606</v>
       </c>
       <c r="X44" t="n">
-        <v>746.7056659857641</v>
+        <v>838.3849181013534</v>
       </c>
       <c r="Y44" t="n">
-        <v>746.7056659857641</v>
+        <v>433.0476480562437</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I45" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J45" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K45" t="n">
-        <v>874.3078922751886</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L45" t="n">
-        <v>874.3078922751886</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M45" t="n">
-        <v>874.3078922751886</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N45" t="n">
-        <v>874.3078922751886</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O45" t="n">
-        <v>1307.021068682275</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P45" t="n">
-        <v>1307.021068682275</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q45" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R45" t="n">
         <v>1853.185855629757</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>682.0516858538774</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C46" t="n">
-        <v>682.0516858538774</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D46" t="n">
-        <v>518.7349129806481</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E46" t="n">
-        <v>352.5267071335016</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F46" t="n">
-        <v>352.5267071335016</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G46" t="n">
         <v>288.0630618008172</v>
@@ -7812,13 +7812,13 @@
         <v>328.5171544792427</v>
       </c>
       <c r="L46" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M46" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N46" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O46" t="n">
         <v>1807.311910299714</v>
@@ -7833,25 +7833,25 @@
         <v>2177.87263914955</v>
       </c>
       <c r="S46" t="n">
-        <v>2177.87263914955</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T46" t="n">
-        <v>2177.87263914955</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U46" t="n">
-        <v>1897.688190649854</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="V46" t="n">
-        <v>1615.976723257883</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="W46" t="n">
-        <v>1341.124319430396</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="X46" t="n">
-        <v>1098.560422876201</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y46" t="n">
-        <v>872.2176545659431</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>361.4449756170225</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>457.2459600376383</v>
       </c>
       <c r="P2" t="n">
         <v>498.9752675705655</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8054,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>465.1567191589064</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>482.7429339738759</v>
+        <v>99.28895563385612</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q3" t="n">
         <v>484.1469440493127</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8151,13 +8151,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>381.5174992961649</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>299.4534711317698</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,16 +8215,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L5" t="n">
-        <v>481.7770299789515</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>114.6301304286942</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
@@ -8233,7 +8233,7 @@
         <v>498.7908651163583</v>
       </c>
       <c r="P5" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
@@ -8294,7 +8294,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
@@ -8306,19 +8306,19 @@
         <v>484.4966862726622</v>
       </c>
       <c r="N6" t="n">
-        <v>456.5786519614261</v>
+        <v>99.28895563385595</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8379,13 +8379,13 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>400.5044494188121</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>402.0534574160406</v>
+        <v>154.8562184343671</v>
       </c>
       <c r="O7" t="n">
         <v>381.5174992961649</v>
@@ -8394,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>455.6196014764236</v>
       </c>
       <c r="L8" t="n">
-        <v>481.7770299789515</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,31 +8528,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L9" t="n">
-        <v>382.4247840754558</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>484.5717954825564</v>
+        <v>101.1178171425364</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8610,10 +8610,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
         <v>380.1908016072373</v>
@@ -8622,7 +8622,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N10" t="n">
-        <v>402.0534574160406</v>
+        <v>26.57325859521377</v>
       </c>
       <c r="O10" t="n">
         <v>381.5174992961649</v>
@@ -8631,7 +8631,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8692,7 +8692,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>454.9120992556681</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
         <v>499.7119481929572</v>
@@ -8701,16 +8701,16 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>457.1346235160603</v>
       </c>
       <c r="O11" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8771,25 +8771,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>465.8542658379009</v>
       </c>
       <c r="N12" t="n">
-        <v>464.1005135391146</v>
+        <v>482.7429339738759</v>
       </c>
       <c r="O12" t="n">
         <v>484.5717954825564</v>
       </c>
       <c r="P12" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>20.63675598390187</v>
+        <v>62.24691767208638</v>
       </c>
       <c r="K13" t="n">
         <v>249.7804132464869</v>
@@ -8862,13 +8862,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O13" t="n">
-        <v>381.5174992961649</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P13" t="n">
-        <v>126.7901678844537</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>455.6196014764236</v>
       </c>
       <c r="L14" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>480.1484446815972</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>465.1567191589062</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>484.4966862726622</v>
@@ -9023,13 +9023,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>99.71676862514317</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,19 +9084,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>380.1908016072373</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M16" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N16" t="n">
-        <v>402.0534574160406</v>
+        <v>384.8453003067499</v>
       </c>
       <c r="O16" t="n">
         <v>381.5174992961649</v>
@@ -9105,7 +9105,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>497.1645065551435</v>
+        <v>455.6196014764236</v>
       </c>
       <c r="L17" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
-        <v>361.4449756170225</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L18" t="n">
         <v>483.9149924745637</v>
@@ -9254,19 +9254,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>465.9293750477951</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>99.71676862514317</v>
       </c>
       <c r="Q18" t="n">
         <v>484.1469440493127</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
         <v>380.1908016072373</v>
@@ -9339,7 +9339,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>68.71811917318276</v>
       </c>
       <c r="Q19" t="n">
         <v>24.61956276478495</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>480.1484446815972</v>
+        <v>457.2459600376383</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
@@ -9488,19 +9488,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>482.7429339738759</v>
+        <v>464.1005135391146</v>
       </c>
       <c r="O21" t="n">
         <v>484.5717954825564</v>
       </c>
       <c r="P21" t="n">
-        <v>457.0064649527129</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9558,10 +9558,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
         <v>380.1908016072373</v>
@@ -9576,10 +9576,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q22" t="n">
-        <v>24.61956276478495</v>
+        <v>70.95688127998122</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,22 +9637,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L23" t="n">
-        <v>38.31204243262292</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M23" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>547.8252218830994</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P23" t="n">
         <v>593.8031749258255</v>
@@ -9713,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>180.044604464622</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L26" t="n">
         <v>38.31204243262292</v>
@@ -9886,10 +9886,10 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>181.5591018660332</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>593.6187724716183</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P26" t="n">
         <v>593.8031749258255</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>459.4832504061476</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
@@ -9965,7 +9965,7 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>267.0107895760206</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -9977,7 +9977,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10053,7 +10053,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,25 +10111,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L29" t="n">
-        <v>594.539855548217</v>
+        <v>205.7998844961774</v>
       </c>
       <c r="M29" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
-        <v>571.1449214366446</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P29" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
         <v>578.6270469489275</v>
@@ -10205,16 +10205,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>268.8396510847011</v>
       </c>
       <c r="P30" t="n">
-        <v>458.854857777643</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q30" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L32" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>593.6187724716183</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P32" t="n">
-        <v>110.6369203512731</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q32" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>455.0528931487048</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
@@ -10442,13 +10442,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>550.6255558370718</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
         <v>577.9986543204228</v>
       </c>
       <c r="Q33" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10515,7 +10515,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
-        <v>417.7126065281028</v>
+        <v>417.7126065281034</v>
       </c>
       <c r="N34" t="n">
         <v>402.0534574160406</v>
@@ -10591,25 +10591,25 @@
         <v>591.9924139104035</v>
       </c>
       <c r="L35" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M35" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>204.7674648980005</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>37.3909593560241</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>185.9918631203545</v>
       </c>
       <c r="P36" t="n">
-        <v>541.7026457419896</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q36" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
         <v>249.7804132464869</v>
@@ -10828,10 +10828,10 @@
         <v>591.9924139104035</v>
       </c>
       <c r="L38" t="n">
-        <v>594.539855548217</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M38" t="n">
-        <v>300.4545145390017</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
         <v>37.27962283444602</v>
@@ -10840,13 +10840,13 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,22 +10904,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>268.7645418748068</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>267.0107895760205</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q39" t="n">
         <v>491.5808533018869</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
         <v>249.7804132464869</v>
@@ -10998,7 +10998,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
-        <v>315.9153581548562</v>
+        <v>315.915358154857</v>
       </c>
       <c r="Q40" t="n">
         <v>152.9025226039384</v>
@@ -11062,19 +11062,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M41" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>181.5591018660332</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
         <v>593.8031749258255</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
         <v>20.61111433333334</v>
@@ -11144,13 +11144,13 @@
         <v>578.6270469489275</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>97.94106200967607</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>259.4889279983319</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O42" t="n">
         <v>579.3997028378163</v>
@@ -11159,10 +11159,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>249.7804132464876</v>
       </c>
       <c r="L43" t="n">
         <v>380.1908016072373</v>
@@ -11238,7 +11238,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11302,16 +11302,16 @@
         <v>591.9924139104035</v>
       </c>
       <c r="L44" t="n">
-        <v>182.5915214642101</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M44" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>593.5074359500402</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P44" t="n">
         <v>37.5753618102313</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
         <v>578.6270469489275</v>
@@ -11390,16 +11390,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>460.2559062950365</v>
+        <v>268.8396510847011</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11460,7 +11460,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>380.190801607238</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
         <v>417.7126065281028</v>
@@ -11469,7 +11469,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
-        <v>381.5174992961649</v>
+        <v>381.5174992961657</v>
       </c>
       <c r="P46" t="n">
         <v>315.9153581548562</v>
@@ -22549,19 +22549,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>195.3067033330709</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>288.7533859076592</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -22606,16 +22606,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -22719,13 +22719,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>66.58839494079558</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22755,7 +22755,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -22767,13 +22767,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>187.9884835801962</v>
       </c>
     </row>
     <row r="5">
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22840,16 +22840,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>275.6272398561812</v>
+        <v>47.03151755529854</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22944,22 +22944,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>81.59016925535418</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -23001,13 +23001,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>25.48715620758588</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
@@ -23038,7 +23038,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>121.2529535058607</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -23071,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -23086,10 +23086,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>3.553598700399107</v>
       </c>
     </row>
     <row r="9">
@@ -23178,25 +23178,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.60164079042603</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>59.59201627359595</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -23241,13 +23241,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -23269,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>52.43237559919862</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>170.7946709436069</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -23326,7 +23326,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>81.59016925535418</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -23466,19 +23466,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>107.5634614771281</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23500,19 +23500,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>197.7282917330931</v>
       </c>
       <c r="E14" t="n">
-        <v>89.73746464470827</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -23734,22 +23734,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>281.6945296611875</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
@@ -23785,22 +23785,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>125.4142447354811</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>79.50510837954221</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
@@ -23943,16 +23943,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>101.4207812742427</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23971,7 +23971,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
@@ -23980,16 +23980,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864458</v>
+        <v>263.2857684650355</v>
       </c>
       <c r="H20" t="n">
-        <v>176.1957994257052</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24031,7 +24031,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -24129,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>18.50841905774436</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>146.1698679701245</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24214,19 +24214,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,19 +24262,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>102.588899479391</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>156.0381082653806</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24369,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>71.98949189919276</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -24414,13 +24414,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>153.4739695386594</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24502,13 +24502,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>180.3631095772874</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>325.2164753450601</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>71.98949189919276</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -24621,7 +24621,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>134.2186792867735</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24682,7 +24682,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>293.7391542194586</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
@@ -24694,7 +24694,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>294.8896947407055</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>3.64711364418028</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
@@ -24849,16 +24849,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>71.98949189919276</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>165.7641609568363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24925,16 +24925,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>237.8817141039888</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>103.323621185591</v>
+        <v>61.41823771677787</v>
       </c>
       <c r="T32" t="n">
         <v>218.7163152458132</v>
@@ -24982,10 +24982,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>159.0754738819297</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>153.4739695386584</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969948</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25156,7 +25156,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>322.8707716361305</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
@@ -25165,13 +25165,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>281.602663049273</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -25207,10 +25207,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>166.9210774789732</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25365,13 +25365,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>117.2205539080134</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>276.3796037053941</v>
       </c>
       <c r="C38" t="n">
-        <v>414.1575018060211</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25450,10 +25450,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>65.23940003763239</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>106.2309441183559</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25636,19 +25636,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>74.10828674043358</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>55.36010632361302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>118.5577190788904</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>66.28277819799368</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25867,7 +25867,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>72.51569645387013</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -25879,13 +25879,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>268.3325219007095</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,10 +26034,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>100.7753911293526</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26073,22 +26073,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>59.37454630891006</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>444326.8468549412</v>
+        <v>444326.8468549413</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>444326.8468549413</v>
+        <v>444326.8468549412</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>444326.8468549412</v>
+        <v>444326.8468549413</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>500678.2869155986</v>
+        <v>500678.2869155985</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>500678.2869155986</v>
+        <v>500678.2869155985</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>500678.2869155986</v>
+        <v>500678.2869155985</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>500678.2869155985</v>
+        <v>500678.2869155986</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>500678.2869155985</v>
+        <v>500678.2869155987</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>500678.2869155985</v>
+        <v>500678.2869155986</v>
       </c>
     </row>
     <row r="16">
@@ -26334,7 +26334,7 @@
         <v>127796.9642511872</v>
       </c>
       <c r="I2" t="n">
-        <v>144000.3627815021</v>
+        <v>144000.362781502</v>
       </c>
       <c r="J2" t="n">
         <v>144000.362781502</v>
@@ -26343,7 +26343,7 @@
         <v>144000.362781502</v>
       </c>
       <c r="L2" t="n">
-        <v>144000.362781502</v>
+        <v>144000.3627815021</v>
       </c>
       <c r="M2" t="n">
         <v>144000.362781502</v>
@@ -26352,10 +26352,10 @@
         <v>144000.362781502</v>
       </c>
       <c r="O2" t="n">
+        <v>144000.362781502</v>
+      </c>
+      <c r="P2" t="n">
         <v>144000.3627815021</v>
-      </c>
-      <c r="P2" t="n">
-        <v>144000.362781502</v>
       </c>
     </row>
     <row r="3">
@@ -26420,19 +26420,19 @@
         <v>46301.12075802254</v>
       </c>
       <c r="C4" t="n">
-        <v>46301.12075802254</v>
+        <v>46301.12075802253</v>
       </c>
       <c r="D4" t="n">
-        <v>46301.12075802255</v>
+        <v>46301.12075802253</v>
       </c>
       <c r="E4" t="n">
-        <v>46301.12075802254</v>
+        <v>46301.12075802253</v>
       </c>
       <c r="F4" t="n">
         <v>46301.12075802254</v>
       </c>
       <c r="G4" t="n">
-        <v>46301.12075802253</v>
+        <v>46301.12075802254</v>
       </c>
       <c r="H4" t="n">
         <v>46301.12075802253</v>
@@ -26450,10 +26450,10 @@
         <v>52194.43267059495</v>
       </c>
       <c r="M4" t="n">
-        <v>52194.43267059494</v>
+        <v>52194.43267059495</v>
       </c>
       <c r="N4" t="n">
-        <v>52194.43267059494</v>
+        <v>52194.43267059495</v>
       </c>
       <c r="O4" t="n">
         <v>52194.43267059495</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-134810.5913951842</v>
+        <v>-135514.9512166757</v>
       </c>
       <c r="C6" t="n">
-        <v>19815.12922293639</v>
+        <v>19110.76940144482</v>
       </c>
       <c r="D6" t="n">
-        <v>19815.12922293636</v>
+        <v>19110.76940144488</v>
       </c>
       <c r="E6" t="n">
-        <v>53442.72922293632</v>
+        <v>52738.36940144483</v>
       </c>
       <c r="F6" t="n">
-        <v>53442.72922293632</v>
+        <v>52738.3694014448</v>
       </c>
       <c r="G6" t="n">
-        <v>53442.72922293632</v>
+        <v>52738.3694014448</v>
       </c>
       <c r="H6" t="n">
-        <v>53442.72922293634</v>
+        <v>52738.36940144483</v>
       </c>
       <c r="I6" t="n">
-        <v>32770.54712166093</v>
+        <v>32161.50140917118</v>
       </c>
       <c r="J6" t="n">
-        <v>-62735.23786927792</v>
+        <v>-63344.28358176764</v>
       </c>
       <c r="K6" t="n">
-        <v>57987.27907347895</v>
+        <v>57378.23336098925</v>
       </c>
       <c r="L6" t="n">
-        <v>57987.27907347895</v>
+        <v>57378.23336098934</v>
       </c>
       <c r="M6" t="n">
-        <v>57987.27907347895</v>
+        <v>57378.23336098931</v>
       </c>
       <c r="N6" t="n">
-        <v>57987.27907347899</v>
+        <v>57378.23336098922</v>
       </c>
       <c r="O6" t="n">
-        <v>57987.279073479</v>
+        <v>57378.23336098931</v>
       </c>
       <c r="P6" t="n">
-        <v>57987.27907347895</v>
+        <v>57378.23336098934</v>
       </c>
     </row>
   </sheetData>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>324.0137127175907</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="P2" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>77.94592742031445</v>
+      </c>
+      <c r="O3" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34871,13 +34871,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>359.0183117977405</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>277.0726704737833</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,16 +34935,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L5" t="n">
-        <v>443.4649875463285</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>77.19886752926243</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34953,7 +34953,7 @@
         <v>461.3999057603342</v>
       </c>
       <c r="P5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
@@ -35014,7 +35014,7 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35026,19 +35026,19 @@
         <v>461.3999057603342</v>
       </c>
       <c r="N6" t="n">
-        <v>435.2356237478845</v>
+        <v>77.94592742031428</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35099,13 +35099,13 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>377.9290095273263</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>381.3045564404402</v>
+        <v>134.1073174587667</v>
       </c>
       <c r="O7" t="n">
         <v>359.0183117977405</v>
@@ -35114,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="L8" t="n">
-        <v>443.4649875463285</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="N8" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,31 +35248,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L9" t="n">
-        <v>359.9096973612262</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>77.94592742031416</v>
+      </c>
+      <c r="P9" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="N9" t="n">
+      <c r="Q9" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="O9" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
         <v>358.2720417115361</v>
@@ -35342,7 +35342,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N10" t="n">
-        <v>381.3045564404402</v>
+        <v>5.82435761961338</v>
       </c>
       <c r="O10" t="n">
         <v>359.0183117977405</v>
@@ -35351,7 +35351,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>419.1474984608587</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>461.3999057603342</v>
@@ -35421,16 +35421,16 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>419.8550006816143</v>
       </c>
       <c r="O11" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>442.7574853255729</v>
+      </c>
+      <c r="N12" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>442.7574853255729</v>
       </c>
       <c r="O12" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>41.61016168818452</v>
       </c>
       <c r="K13" t="n">
         <v>228.8157587937749</v>
@@ -35582,13 +35582,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O13" t="n">
-        <v>359.0183117977405</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>104.4093672264672</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="M14" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="N14" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="O14" t="n">
-        <v>442.7574853255731</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>442.7574853255729</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>461.3999057603342</v>
@@ -35743,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K16" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L16" t="n">
-        <v>358.2720417115361</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>395.137166636617</v>
       </c>
       <c r="N16" t="n">
-        <v>381.3045564404402</v>
+        <v>364.0963993311495</v>
       </c>
       <c r="O16" t="n">
         <v>359.0183117977405</v>
@@ -35825,7 +35825,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
+        <v>419.8550006816142</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="L17" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="M17" t="n">
-        <v>324.0137127175907</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L18" t="n">
         <v>461.3999057603342</v>
@@ -35974,19 +35974,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>442.7574853255729</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="Q18" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
         <v>358.2720417115361</v>
@@ -36059,7 +36059,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P19" t="n">
-        <v>293.5345574968697</v>
+        <v>46.33731851519627</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>419.8550006816142</v>
+      </c>
+      <c r="P20" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="L20" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="O20" t="n">
-        <v>442.7574853255731</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36208,19 +36208,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>461.3999057603342</v>
+        <v>442.7574853255729</v>
       </c>
       <c r="O21" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="P21" t="n">
-        <v>435.2356237478842</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K22" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L22" t="n">
         <v>358.2720417115361</v>
@@ -36296,10 +36296,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P22" t="n">
-        <v>293.5345574968697</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>46.33731851519627</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,22 +36357,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>510.5455990486533</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>556.2278131155941</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>158.2737632597933</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -36606,10 +36606,10 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>144.2794790315872</v>
-      </c>
-      <c r="O26" t="n">
-        <v>556.2278131155941</v>
       </c>
       <c r="P26" t="n">
         <v>556.2278131155941</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>437.0840165728143</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,7 +36685,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>245.6677613624789</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36773,7 +36773,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q28" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,25 +36831,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L29" t="n">
+        <v>167.4878420635545</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M29" t="n">
+      <c r="P29" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="N29" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O29" t="n">
-        <v>533.7539620806206</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>556.2278131155941</v>
@@ -36925,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>245.6677613624789</v>
       </c>
       <c r="P30" t="n">
-        <v>437.0840165728143</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q30" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37010,7 +37010,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q31" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="P32" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O32" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="P32" t="n">
-        <v>73.06155854104179</v>
       </c>
       <c r="Q32" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37162,13 +37162,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>527.4536661148496</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q33" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37235,7 +37235,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M34" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366176</v>
       </c>
       <c r="N34" t="n">
         <v>381.3045564404402</v>
@@ -37311,25 +37311,25 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="P35" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M35" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N35" t="n">
-        <v>167.4878420635545</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>162.8199733981322</v>
       </c>
       <c r="P36" t="n">
-        <v>519.9318045371609</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q36" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K37" t="n">
         <v>228.8157587937749</v>
@@ -37548,25 +37548,25 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L38" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M38" t="n">
-        <v>263.0232516395698</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>245.6677613624788</v>
+      </c>
+      <c r="O39" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L39" t="n">
+      <c r="P39" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M39" t="n">
-        <v>245.6677613624788</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>468.8338150129084</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K40" t="n">
         <v>228.8157587937749</v>
@@ -37718,7 +37718,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P40" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968705</v>
       </c>
       <c r="Q40" t="n">
         <v>128.2829598391535</v>
@@ -37782,19 +37782,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>144.2794790315872</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>556.2278131155941</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37864,13 +37864,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>75.42597529544652</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>238.1458997847902</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O42" t="n">
         <v>556.2278131155941</v>
@@ -37879,10 +37879,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K43" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937756</v>
       </c>
       <c r="L43" t="n">
         <v>358.2720417115361</v>
@@ -37958,7 +37958,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q43" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,16 +38022,16 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
         <v>144.2794790315872</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
+      <c r="O44" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>556.2278131155941</v>
@@ -38110,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>437.0840165728143</v>
+        <v>245.6677613624789</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38180,7 +38180,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L46" t="n">
-        <v>358.2720417115368</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M46" t="n">
         <v>395.137166636617</v>
@@ -38189,7 +38189,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O46" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977413</v>
       </c>
       <c r="P46" t="n">
         <v>293.5345574968697</v>
